--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Work\CVRP-RP-DR--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AC7D21-343C-43C3-9877-3D3C03EFFCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FEC096-2F13-441C-9888-0D946579218A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,12 @@
     <t>Avg's gap</t>
   </si>
   <si>
+    <t>Smith's Time</t>
+  </si>
+  <si>
+    <t>GAP</t>
+  </si>
+  <si>
     <t>C101_0.5.dat</t>
   </si>
   <si>
@@ -253,6 +259,27 @@
     <t>[[[[0, [1, 2]], [1, []], [4, [4]], [2, [7, 10, 3]], [6, [6, 5, 8]], [5, []], [8, []], [7, []], [10, []], [9, [9]], [3, []]]], [[[4, [4]]], [[2, [7, 10, 3]]], [[6, [6, 5, 8]]], [[9, [9]]]]]</t>
   </si>
   <si>
+    <t>[[[[0, [1]], [4, [4, 2, 5]], [1, []], [2, []], [6, [6, 8, 7, 10]], [5, []], [8, []], [7, []], [10, []], [9, [9, 3]], [3, []]]], [[[4, [4, 2, 5]]], [[6, [6, 8, 7, 10]]], [[9, [9, 3]]]]]</t>
+  </si>
+  <si>
+    <t>[[[[0, [1]], [9, [9, 10, 7, 3]], [10, []], [6, [6, 5, 8, 4]], [7, []], [8, []], [4, []], [5, []], [3, []], [1, []], [2, [2]]]], [[[9, [9, 10, 7, 3]]], [[6, [6, 5, 8, 4]]], [[2, [2]]]]]</t>
+  </si>
+  <si>
+    <t>[[[[0, [1]], [2, [2, 3, 5, 4]], [3, []], [1, []], [5, []], [4, []], [6, [6, 9, 7, 8]], [8, []], [7, []], [10, [10]], [9, []]]], [[[2, [2, 3, 5, 4]]], [[6, [6, 9, 7, 8]]], [[10, [10]]]]]</t>
+  </si>
+  <si>
+    <t>[[[[0, [1]], [4, [4, 5, 3, 2]], [5, []], [3, []], [1, []], [2, []], [6, [6, 7, 8, 10]], [7, []], [8, []], [10, []], [9, [9]]]], [[[4, [4, 5, 3, 2]]], [[6, [6, 7, 8, 10]]], [[9, [9]]]]]</t>
+  </si>
+  <si>
+    <t>[[[[0, [1]], [5, [5, 3, 4, 2]], [1, []], [3, []], [4, []], [2, []], [6, [6, 8, 10, 7]], [7, []], [8, []], [10, []], [9, [9]]]], [[[5, [5, 3, 4, 2]]], [[6, [6, 8, 10, 7]]], [[9, [9]]]]]</t>
+  </si>
+  <si>
+    <t>[[[[0, [1, 5]], [1, [2, 4, 3, 10]], [3, []], [5, []], [2, []], [4, []], [6, [6, 7, 8]], [7, []], [8, []], [10, [9]], [9, []]]], [[[1, [2, 4, 3, 10]]], [[6, [6, 7, 8]]], [[10, [9]]]]]</t>
+  </si>
+  <si>
+    <t>[[[[0, [1, 2, 5]], [1, [4, 3, 10]], [5, []], [2, []], [4, []], [3, []], [6, [6, 7, 8]], [7, []], [8, []], [10, [9]], [9, []]]], [[[1, [4, 3, 10]]], [[6, [6, 7, 8]]], [[10, [9]]]]]</t>
+  </si>
+  <si>
     <t>MILP</t>
   </si>
   <si>
@@ -719,33 +746,6 @@
   </si>
   <si>
     <t>CPU Time</t>
-  </si>
-  <si>
-    <t>Smith's Time</t>
-  </si>
-  <si>
-    <t>GAP</t>
-  </si>
-  <si>
-    <t>[[[[0, [1]], [4, [4, 2, 5]], [1, []], [2, []], [6, [6, 8, 7, 10]], [5, []], [8, []], [7, []], [10, []], [9, [9, 3]], [3, []]]], [[[4, [4, 2, 5]]], [[6, [6, 8, 7, 10]]], [[9, [9, 3]]]]]</t>
-  </si>
-  <si>
-    <t>[[[[0, [1]], [9, [9, 10, 7, 3]], [10, []], [6, [6, 5, 8, 4]], [7, []], [8, []], [4, []], [5, []], [3, []], [1, []], [2, [2]]]], [[[9, [9, 10, 7, 3]]], [[6, [6, 5, 8, 4]]], [[2, [2]]]]]</t>
-  </si>
-  <si>
-    <t>[[[[0, [1]], [2, [2, 3, 5, 4]], [3, []], [1, []], [5, []], [4, []], [6, [6, 9, 7, 8]], [8, []], [7, []], [10, [10]], [9, []]]], [[[2, [2, 3, 5, 4]]], [[6, [6, 9, 7, 8]]], [[10, [10]]]]]</t>
-  </si>
-  <si>
-    <t>[[[[0, [1]], [4, [4, 5, 3, 2]], [5, []], [3, []], [1, []], [2, []], [6, [6, 7, 8, 10]], [7, []], [8, []], [10, []], [9, [9]]]], [[[4, [4, 5, 3, 2]]], [[6, [6, 7, 8, 10]]], [[9, [9]]]]]</t>
-  </si>
-  <si>
-    <t>[[[[0, [1]], [5, [5, 3, 4, 2]], [1, []], [3, []], [4, []], [2, []], [6, [6, 8, 10, 7]], [7, []], [8, []], [10, []], [9, [9]]]], [[[5, [5, 3, 4, 2]]], [[6, [6, 8, 10, 7]]], [[9, [9]]]]]</t>
-  </si>
-  <si>
-    <t>[[[[0, [1, 5]], [1, [2, 4, 3, 10]], [3, []], [5, []], [2, []], [4, []], [6, [6, 7, 8]], [7, []], [8, []], [10, [9]], [9, []]]], [[[1, [2, 4, 3, 10]]], [[6, [6, 7, 8]]], [[10, [9]]]]]</t>
-  </si>
-  <si>
-    <t>[[[[0, [1, 2, 5]], [1, [4, 3, 10]], [5, []], [2, []], [4, []], [3, []], [6, [6, 7, 8]], [7, []], [8, []], [10, [9]], [9, []]]], [[[1, [4, 3, 10]]], [[6, [6, 7, 8]]], [[10, [9]]]]]</t>
   </si>
   <si>
     <t>Smith Time</t>
@@ -790,7 +790,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,6 +881,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1153,19 +1159,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,11 +1235,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFFCC66"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1561,15 +1559,15 @@
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>159</v>
@@ -1624,7 +1622,7 @@
         <v>20.514311051368711</v>
       </c>
       <c r="R2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S2">
         <v>25.3</v>
@@ -1636,13 +1634,13 @@
         <v>4.5</v>
       </c>
       <c r="V2" s="21">
-        <f>(Q2-U2)/U2</f>
+        <f t="shared" ref="V2:V25" si="4">(Q2-U2)/U2</f>
         <v>3.5587357891930469</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>156.36524314308491</v>
@@ -1697,7 +1695,7 @@
         <v>20.773465061187739</v>
       </c>
       <c r="R3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S3">
         <v>32.5</v>
@@ -1709,13 +1707,13 @@
         <v>23.2</v>
       </c>
       <c r="V3" s="21">
-        <f t="shared" ref="V3:V25" si="4">(Q3-U3)/U3</f>
+        <f t="shared" si="4"/>
         <v>-0.10459202322466639</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>177</v>
@@ -1770,7 +1768,7 @@
         <v>20.42477300167084</v>
       </c>
       <c r="R4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S4">
         <v>16.399999999999999</v>
@@ -1788,7 +1786,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>191.48152818585751</v>
@@ -1843,7 +1841,7 @@
         <v>20.57395963668823</v>
       </c>
       <c r="R5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S5">
         <v>15.1</v>
@@ -1861,7 +1859,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>204.36524314308491</v>
@@ -1916,7 +1914,7 @@
         <v>22.392436289787291</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S6">
         <v>16.5</v>
@@ -1934,7 +1932,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>226.09975124224181</v>
@@ -1989,7 +1987,7 @@
         <v>26.219198989868161</v>
       </c>
       <c r="R7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S7">
         <v>18.100000000000001</v>
@@ -2007,7 +2005,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>378</v>
@@ -2062,7 +2060,7 @@
         <v>32.550732660293583</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S8">
         <v>18.100000000000001</v>
@@ -2080,7 +2078,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>395.13830435032401</v>
@@ -2135,7 +2133,7 @@
         <v>31.838018441200251</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S9">
         <v>18.3</v>
@@ -2153,7 +2151,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>412.40894063416459</v>
@@ -2208,7 +2206,7 @@
         <v>32.32288384437561</v>
       </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S10">
         <v>24.5</v>
@@ -2226,7 +2224,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>438.94724213871638</v>
@@ -2281,7 +2279,7 @@
         <v>29.550291991233831</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S11">
         <v>22.4</v>
@@ -2299,7 +2297,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>468.8929594632192</v>
@@ -2354,7 +2352,7 @@
         <v>33.202078008651732</v>
       </c>
       <c r="R12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S12">
         <v>16</v>
@@ -2372,7 +2370,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>505.8929594632192</v>
@@ -2427,7 +2425,7 @@
         <v>32.937110805511473</v>
       </c>
       <c r="R13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S13">
         <v>13.9</v>
@@ -2445,7 +2443,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>441</v>
@@ -2500,7 +2498,7 @@
         <v>28.760345292091369</v>
       </c>
       <c r="R14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S14">
         <v>24.3</v>
@@ -2518,7 +2516,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>460</v>
@@ -2573,7 +2571,7 @@
         <v>34.517841219902039</v>
       </c>
       <c r="R15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S15">
         <v>24.7</v>
@@ -2591,7 +2589,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>477</v>
@@ -2646,7 +2644,7 @@
         <v>28.942125773429868</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S16">
         <v>27.7</v>
@@ -2664,7 +2662,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>539.01562118716424</v>
@@ -2719,7 +2717,7 @@
         <v>32.535504579544067</v>
       </c>
       <c r="R17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S17">
         <v>22.8</v>
@@ -2737,7 +2735,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>602.18033988749903</v>
@@ -2792,7 +2790,7 @@
         <v>30.03303339481354</v>
       </c>
       <c r="R18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S18">
         <v>26.9</v>
@@ -2810,7 +2808,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>664.18033988749903</v>
@@ -2865,7 +2863,7 @@
         <v>29.877855181694031</v>
       </c>
       <c r="R19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S19">
         <v>20.6</v>
@@ -2883,7 +2881,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>379</v>
@@ -2938,7 +2936,7 @@
         <v>26.264855146408081</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S20">
         <v>19.100000000000001</v>
@@ -2956,7 +2954,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>401.80584360149868</v>
@@ -3011,7 +3009,7 @@
         <v>26.8623480796814</v>
       </c>
       <c r="R21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S21">
         <v>21.8</v>
@@ -3029,7 +3027,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>468.54101966249692</v>
@@ -3084,7 +3082,7 @@
         <v>26.66554336547852</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S22">
         <v>28.5</v>
@@ -3102,7 +3100,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>466.66293558253068</v>
@@ -3157,7 +3155,7 @@
         <v>26.938503265380859</v>
       </c>
       <c r="R23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S23">
         <v>34.799999999999997</v>
@@ -3175,7 +3173,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>516.35533905932743</v>
@@ -3230,7 +3228,7 @@
         <v>27.049299216270452</v>
       </c>
       <c r="R24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S24">
         <v>32.4</v>
@@ -3248,7 +3246,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>548.01232972934815</v>
@@ -3303,7 +3301,7 @@
         <v>27.092173123359679</v>
       </c>
       <c r="R25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="S25">
         <v>24.7</v>
@@ -3346,15 +3344,15 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>139</v>
@@ -3409,7 +3407,7 @@
         <v>24.343031334877011</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S2">
         <v>24.6</v>
@@ -3421,13 +3419,13 @@
         <v>1.5</v>
       </c>
       <c r="V2" s="21">
-        <f>(Q2-U2)/U2</f>
+        <f t="shared" ref="V2:V25" si="4">(Q2-U2)/U2</f>
         <v>15.228687556584674</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>150.13274595042159</v>
@@ -3482,7 +3480,7 @@
         <v>21.984241056442261</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S3">
         <v>25.3</v>
@@ -3494,13 +3492,13 @@
         <v>8.9</v>
       </c>
       <c r="V3" s="21">
-        <f t="shared" ref="V3:V25" si="4">(Q3-U3)/U3</f>
+        <f t="shared" si="4"/>
         <v>1.4701394445440743</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>162.49254721989061</v>
@@ -3555,7 +3553,7 @@
         <v>20.834701156616209</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S4">
         <v>18.3</v>
@@ -3573,7 +3571,7 @@
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>170</v>
@@ -3628,7 +3626,7 @@
         <v>20.906166100502009</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S5">
         <v>6.3</v>
@@ -3646,7 +3644,7 @@
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>187.11077027627479</v>
@@ -3701,7 +3699,7 @@
         <v>24.821067690849301</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S6">
         <v>5.6</v>
@@ -3719,7 +3717,7 @@
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>210.11077027627479</v>
@@ -3774,7 +3772,7 @@
         <v>35.639283442497252</v>
       </c>
       <c r="R7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="S7">
         <v>4.0999999999999996</v>
@@ -3792,7 +3790,7 @@
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>359</v>
@@ -3847,7 +3845,7 @@
         <v>35.526882076263433</v>
       </c>
       <c r="R8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S8">
         <v>27.1</v>
@@ -3865,7 +3863,7 @@
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>376.52277622223568</v>
@@ -3920,7 +3918,7 @@
         <v>38.971551704406743</v>
       </c>
       <c r="R9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S9">
         <v>13.9</v>
@@ -3938,7 +3936,7 @@
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>397.13274595042162</v>
@@ -3993,7 +3991,7 @@
         <v>37.683461236953733</v>
       </c>
       <c r="R10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S10">
         <v>27.2</v>
@@ -4011,7 +4009,7 @@
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>422.3238075793812</v>
@@ -4066,7 +4064,7 @@
         <v>40.323891329765317</v>
       </c>
       <c r="R11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="S11">
         <v>23.5</v>
@@ -4084,7 +4082,7 @@
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>465.90724809414741</v>
@@ -4139,7 +4137,7 @@
         <v>36.735057044029233</v>
       </c>
       <c r="R12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S12">
         <v>19.600000000000001</v>
@@ -4157,7 +4155,7 @@
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>505.3238075793812</v>
@@ -4212,7 +4210,7 @@
         <v>30.455693459510801</v>
       </c>
       <c r="R13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="S13">
         <v>17.8</v>
@@ -4230,7 +4228,7 @@
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>431</v>
@@ -4285,7 +4283,7 @@
         <v>28.092645525932308</v>
       </c>
       <c r="R14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S14">
         <v>25.8</v>
@@ -4303,7 +4301,7 @@
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>450</v>
@@ -4358,7 +4356,7 @@
         <v>32.299785137176507</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S15">
         <v>28.7</v>
@@ -4376,7 +4374,7 @@
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>467</v>
@@ -4431,7 +4429,7 @@
         <v>30.784048414230352</v>
       </c>
       <c r="R16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S16">
         <v>10.6</v>
@@ -4449,7 +4447,7 @@
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>534.01562118716424</v>
@@ -4504,7 +4502,7 @@
         <v>32.076395368576051</v>
       </c>
       <c r="R17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S17">
         <v>14.2</v>
@@ -4522,7 +4520,7 @@
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>602.18033988749903</v>
@@ -4577,7 +4575,7 @@
         <v>34.790406823158257</v>
       </c>
       <c r="R18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="S18">
         <v>7.8</v>
@@ -4595,7 +4593,7 @@
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>664.18033988749903</v>
@@ -4650,7 +4648,7 @@
         <v>27.581463027000432</v>
       </c>
       <c r="R19" t="s">
-        <v>228</v>
+        <v>72</v>
       </c>
       <c r="S19">
         <v>19.3</v>
@@ -4668,7 +4666,7 @@
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>359.54101966249692</v>
@@ -4723,7 +4721,7 @@
         <v>18.590149354934692</v>
       </c>
       <c r="R20" t="s">
-        <v>229</v>
+        <v>73</v>
       </c>
       <c r="S20">
         <v>11.3</v>
@@ -4741,7 +4739,7 @@
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>406.54101966249692</v>
@@ -4796,7 +4794,7 @@
         <v>18.91230320930481</v>
       </c>
       <c r="R21" t="s">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="S21">
         <v>21.6</v>
@@ -4814,7 +4812,7 @@
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>397.3016516106934</v>
@@ -4869,7 +4867,7 @@
         <v>18.874036026000979</v>
       </c>
       <c r="R22" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="S22">
         <v>10.9</v>
@@ -4887,7 +4885,7 @@
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>447.3016516106934</v>
@@ -4942,7 +4940,7 @@
         <v>18.701728725433352</v>
       </c>
       <c r="R23" t="s">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="S23">
         <v>13.1</v>
@@ -4960,7 +4958,7 @@
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>497.3016516106934</v>
@@ -5015,7 +5013,7 @@
         <v>19.657749629020689</v>
       </c>
       <c r="R24" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="S24">
         <v>5.5</v>
@@ -5033,7 +5031,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>546.3016516106934</v>
@@ -5088,7 +5086,7 @@
         <v>26.923111009597779</v>
       </c>
       <c r="R25" t="s">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="S25">
         <v>4.5999999999999996</v>
@@ -5106,15 +5104,15 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
         <f>AVERAGE(M2:M7)</f>
@@ -5133,7 +5131,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(M8:M13)</f>
@@ -5152,7 +5150,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(M14:M19)</f>
@@ -5171,7 +5169,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(M20:M25)</f>
@@ -5244,15 +5242,15 @@
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>289</v>
@@ -5307,7 +5305,7 @@
         <v>84.947150349617004</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="S2">
         <v>29.6</v>
@@ -5319,13 +5317,13 @@
         <v>73.3</v>
       </c>
       <c r="V2" s="21">
-        <f>(Q2-U2)/U2</f>
+        <f t="shared" ref="V2:V25" si="4">(Q2-U2)/U2</f>
         <v>0.15889700340541621</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>308.32842439665791</v>
@@ -5380,7 +5378,7 @@
         <v>105.9043066978455</v>
       </c>
       <c r="R3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="S3">
         <v>36.1</v>
@@ -5392,13 +5390,13 @@
         <v>1905.9</v>
       </c>
       <c r="V3" s="21">
-        <f t="shared" ref="V3:V25" si="4">(Q3-U3)/U3</f>
+        <f t="shared" si="4"/>
         <v>-0.94443344000322926</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>337.13274595042162</v>
@@ -5453,7 +5451,7 @@
         <v>107.997788143158</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="S4">
         <v>32.799999999999997</v>
@@ -5471,7 +5469,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>359.11077027627482</v>
@@ -5526,7 +5524,7 @@
         <v>107.0538100481033</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="S5">
         <v>23.5</v>
@@ -5544,7 +5542,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>384.64688270438847</v>
@@ -5599,7 +5597,7 @@
         <v>115.37086303234101</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="S6">
         <v>34.5</v>
@@ -5617,7 +5615,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>415.07886552931961</v>
@@ -5672,7 +5670,7 @@
         <v>114.46145675182341</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="S7">
         <v>25</v>
@@ -5690,7 +5688,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>472</v>
@@ -5745,7 +5743,7 @@
         <v>121.5164168119431</v>
       </c>
       <c r="R8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="S8">
         <v>31</v>
@@ -5763,7 +5761,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>504.17397007413331</v>
@@ -5818,7 +5816,7 @@
         <v>121.7711357593536</v>
       </c>
       <c r="R9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="S9">
         <v>21.9</v>
@@ -5836,7 +5834,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>522.37932033402103</v>
@@ -5891,7 +5889,7 @@
         <v>121.91395127773281</v>
       </c>
       <c r="R10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="S10">
         <v>34.9</v>
@@ -5909,7 +5907,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>547.27227979724034</v>
@@ -5964,7 +5962,7 @@
         <v>123.62086167335509</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="S11">
         <v>26.7</v>
@@ -5982,7 +5980,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>612.72648068808189</v>
@@ -6037,7 +6035,7 @@
         <v>125.4874565124512</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="S12">
         <v>21.1</v>
@@ -6055,7 +6053,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>664.94724213871632</v>
@@ -6110,7 +6108,7 @@
         <v>119.2946927547455</v>
       </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="S13">
         <v>22.3</v>
@@ -6128,7 +6126,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>623</v>
@@ -6183,7 +6181,7 @@
         <v>143.5674118041992</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="S14">
         <v>27.9</v>
@@ -6201,7 +6199,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>678.95711050037369</v>
@@ -6256,7 +6254,7 @@
         <v>122.2415244817734</v>
       </c>
       <c r="R15" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="S15">
         <v>32.9</v>
@@ -6274,7 +6272,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>678.92453140661928</v>
@@ -6329,7 +6327,7 @@
         <v>125.0254221916199</v>
       </c>
       <c r="R16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="S16">
         <v>22</v>
@@ -6347,7 +6345,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>708.44505502581956</v>
@@ -6402,7 +6400,7 @@
         <v>128.2134910583496</v>
       </c>
       <c r="R17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="S17">
         <v>28.7</v>
@@ -6420,7 +6418,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>771.41381265149107</v>
@@ -6475,7 +6473,7 @@
         <v>95.050589227676397</v>
       </c>
       <c r="R18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="S18">
         <v>21.8</v>
@@ -6493,7 +6491,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>847.41381265149107</v>
@@ -6548,7 +6546,7 @@
         <v>122.7995204687118</v>
       </c>
       <c r="R19" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="S19">
         <v>27</v>
@@ -6566,7 +6564,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>449</v>
@@ -6621,7 +6619,7 @@
         <v>68.890446472167966</v>
       </c>
       <c r="R20" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="S20">
         <v>24.4</v>
@@ -6639,7 +6637,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>495</v>
@@ -6694,7 +6692,7 @@
         <v>89.249413132667542</v>
       </c>
       <c r="R21" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="S21">
         <v>22.3</v>
@@ -6712,7 +6710,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>502.85110375292282</v>
@@ -6767,7 +6765,7 @@
         <v>86.06237683296203</v>
       </c>
       <c r="R22" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="S22">
         <v>38.299999999999997</v>
@@ -6785,7 +6783,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>596.92928914390018</v>
@@ -6840,7 +6838,7 @@
         <v>92.228371882438665</v>
       </c>
       <c r="R23" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="S23">
         <v>34.200000000000003</v>
@@ -6858,7 +6856,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>672.63382268477085</v>
@@ -6913,7 +6911,7 @@
         <v>102.8744462251663</v>
       </c>
       <c r="R24" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="S24">
         <v>17.5</v>
@@ -6931,7 +6929,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>691.47030880639704</v>
@@ -6986,7 +6984,7 @@
         <v>65.061383008956909</v>
       </c>
       <c r="R25" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="S25">
         <v>31.4</v>
@@ -7044,15 +7042,15 @@
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>276</v>
@@ -7107,7 +7105,7 @@
         <v>106.5669304847717</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="S2">
         <v>23.1</v>
@@ -7125,7 +7123,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>284.68154169226938</v>
@@ -7180,7 +7178,7 @@
         <v>115.9428859710693</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="S3">
         <v>30.9</v>
@@ -7198,7 +7196,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>301.37626217711801</v>
@@ -7253,7 +7251,7 @@
         <v>110.5041610002518</v>
       </c>
       <c r="R4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="S4">
         <v>31.3</v>
@@ -7271,7 +7269,7 @@
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>345.05551275463989</v>
@@ -7326,7 +7324,7 @@
         <v>112.1328010320663</v>
       </c>
       <c r="R5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="S5">
         <v>19.8</v>
@@ -7344,7 +7342,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>389.05551275463989</v>
@@ -7399,7 +7397,7 @@
         <v>123.67571201324461</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="S6">
         <v>27.4</v>
@@ -7417,7 +7415,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>410.07886552931961</v>
@@ -7472,7 +7470,7 @@
         <v>126.694921541214</v>
       </c>
       <c r="R7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="S7">
         <v>25.2</v>
@@ -7490,7 +7488,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>446.74524290015302</v>
@@ -7545,7 +7543,7 @@
         <v>123.492271900177</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="S8">
         <v>22.4</v>
@@ -7563,7 +7561,7 @@
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>464.90724809414741</v>
@@ -7618,7 +7616,7 @@
         <v>131.61825835704801</v>
       </c>
       <c r="R9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="S9">
         <v>24</v>
@@ -7636,7 +7634,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>493.90724809414741</v>
@@ -7691,7 +7689,7 @@
         <v>118.93317759037021</v>
       </c>
       <c r="R10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="S10">
         <v>32.700000000000003</v>
@@ -7709,7 +7707,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>535.90724809414746</v>
@@ -7764,7 +7762,7 @@
         <v>135.3426148891449</v>
       </c>
       <c r="R11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="S11">
         <v>23.1</v>
@@ -7782,7 +7780,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>596.3238075793812</v>
@@ -7837,7 +7835,7 @@
         <v>134.96931221485141</v>
       </c>
       <c r="R12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="S12">
         <v>23.3</v>
@@ -7855,7 +7853,7 @@
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>658.90724809414746</v>
@@ -7910,7 +7908,7 @@
         <v>134.45199666023251</v>
       </c>
       <c r="R13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="S13">
         <v>27.1</v>
@@ -7928,7 +7926,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>613.23154621172785</v>
@@ -7983,7 +7981,7 @@
         <v>142.72945747375491</v>
       </c>
       <c r="R14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="S14">
         <v>28.4</v>
@@ -8001,7 +7999,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>632</v>
@@ -8056,7 +8054,7 @@
         <v>132.9053794384003</v>
       </c>
       <c r="R15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="S15">
         <v>22.3</v>
@@ -8074,7 +8072,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>656.41381265149107</v>
@@ -8129,7 +8127,7 @@
         <v>138.14566628932951</v>
       </c>
       <c r="R16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="S16">
         <v>28.3</v>
@@ -8147,7 +8145,7 @@
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>758.41381265149107</v>
@@ -8202,7 +8200,7 @@
         <v>72.407904911041257</v>
       </c>
       <c r="R17" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="S17">
         <v>22.7</v>
@@ -8220,7 +8218,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>806.41381265149107</v>
@@ -8275,7 +8273,7 @@
         <v>117.7642604589462</v>
       </c>
       <c r="R18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="S18">
         <v>28.8</v>
@@ -8293,7 +8291,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>828.97045350115218</v>
@@ -8348,7 +8346,7 @@
         <v>142.04717087745669</v>
       </c>
       <c r="R19" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="S19">
         <v>25</v>
@@ -8366,7 +8364,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>413.62277660168382</v>
@@ -8421,7 +8419,7 @@
         <v>100.17799141407011</v>
       </c>
       <c r="R20" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="S20">
         <v>27.8</v>
@@ -8439,7 +8437,7 @@
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>470.63382268477079</v>
@@ -8494,7 +8492,7 @@
         <v>97.513407778739932</v>
       </c>
       <c r="R21" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="S21">
         <v>24.2</v>
@@ -8512,7 +8510,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>455.3016516106934</v>
@@ -8567,7 +8565,7 @@
         <v>100.91502022743229</v>
       </c>
       <c r="R22" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="S22">
         <v>28.1</v>
@@ -8585,7 +8583,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>575.7865728658644</v>
@@ -8640,7 +8638,7 @@
         <v>100.69255130290981</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="S23">
         <v>22.8</v>
@@ -8658,7 +8656,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>587.54101966249686</v>
@@ -8713,7 +8711,7 @@
         <v>71.853709602355963</v>
       </c>
       <c r="R24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="S24">
         <v>21.9</v>
@@ -8731,7 +8729,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>621.3016516106934</v>
@@ -8786,7 +8784,7 @@
         <v>57.40239853858948</v>
       </c>
       <c r="R25" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="S25">
         <v>18.2</v>
@@ -8804,15 +8802,15 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3">
         <f>AVERAGE(M2:M7)</f>
@@ -8831,7 +8829,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
         <f>AVERAGE(M8:M13)</f>
@@ -8850,7 +8848,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3">
         <f>AVERAGE(M14:M19)</f>
@@ -8869,7 +8867,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3">
         <f>AVERAGE(M20:M25)</f>
@@ -8942,24 +8940,24 @@
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1">
-        <v>264.13274595042162</v>
+        <v>306</v>
       </c>
       <c r="D2" s="1">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1">
         <v>262</v>
@@ -8995,44 +8993,44 @@
       </c>
       <c r="O2" s="16">
         <f t="shared" ref="O2:O25" si="2">AVERAGE(B2:K2)</f>
-        <v>263.65309838016867</v>
+        <v>277.13982378512645</v>
       </c>
       <c r="P2" s="17">
         <f t="shared" ref="P2:P25" si="3">(O2-L2)/L2</f>
-        <v>6.3095358021705026E-3</v>
+        <v>5.7785586966131501E-2</v>
       </c>
       <c r="Q2">
         <v>124.0203531980515</v>
       </c>
       <c r="R2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="S2">
-        <v>35.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="T2">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="U2">
         <v>10.199999999999999</v>
       </c>
       <c r="V2" s="21">
-        <f>(Q2-U2)/U2</f>
+        <f t="shared" ref="V2:V25" si="4">(Q2-U2)/U2</f>
         <v>11.158858156671716</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>275.13274595042162</v>
+        <v>366</v>
       </c>
       <c r="C3" s="1">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="D3" s="1">
-        <v>279.68154169226938</v>
+        <v>352</v>
       </c>
       <c r="E3" s="1">
         <v>275.13274595042162</v>
@@ -9068,44 +9066,44 @@
       </c>
       <c r="O3" s="16">
         <f t="shared" si="2"/>
-        <v>278.62700025359027</v>
+        <v>303.9455714893212</v>
       </c>
       <c r="P3" s="17">
         <f t="shared" si="3"/>
-        <v>1.282079336092419E-2</v>
+        <v>0.10485485819455169</v>
       </c>
       <c r="Q3">
         <v>130.58041634559629</v>
       </c>
       <c r="R3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S3">
-        <v>19.7</v>
+        <v>11.7</v>
       </c>
       <c r="T3">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="U3">
         <v>19.8</v>
       </c>
       <c r="V3" s="21">
-        <f t="shared" ref="V3:V25" si="4">(Q3-U3)/U3</f>
+        <f t="shared" si="4"/>
         <v>5.5949705225048634</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>297.99411087041682</v>
+        <v>425</v>
       </c>
       <c r="C4" s="1">
-        <v>298.07886552931961</v>
+        <v>424.09975124224178</v>
       </c>
       <c r="D4" s="1">
-        <v>296.05551275463989</v>
+        <v>375.07886552931961</v>
       </c>
       <c r="E4" s="1">
         <v>298.07886552931961</v>
@@ -9141,23 +9139,23 @@
       </c>
       <c r="O4" s="16">
         <f t="shared" si="2"/>
-        <v>297.4531624006255</v>
+        <v>330.65817516234398</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="3"/>
-        <v>4.5699506944460611E-3</v>
+        <v>0.11671116231794648</v>
       </c>
       <c r="Q4">
         <v>133.6413889408112</v>
       </c>
       <c r="R4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S4">
-        <v>19.7</v>
+        <v>12.1</v>
       </c>
       <c r="T4">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="U4">
         <v>214.7</v>
@@ -9169,16 +9167,16 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>340.05551275463989</v>
+        <v>485</v>
       </c>
       <c r="C5" s="1">
-        <v>340.05551275463989</v>
+        <v>477</v>
       </c>
       <c r="D5" s="1">
-        <v>340.05551275463989</v>
+        <v>484</v>
       </c>
       <c r="E5" s="1">
         <v>342.07886552931961</v>
@@ -9214,23 +9212,23 @@
       </c>
       <c r="O5" s="16">
         <f t="shared" si="2"/>
-        <v>340.25784803210792</v>
+        <v>382.84119420571591</v>
       </c>
       <c r="P5" s="17">
         <f t="shared" si="3"/>
-        <v>1.9371261251704733E-3</v>
+        <v>0.12732978270234357</v>
       </c>
       <c r="Q5">
         <v>124.2929543972015</v>
       </c>
       <c r="R5" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S5">
-        <v>17.399999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U5">
         <v>5334.7</v>
@@ -9242,16 +9240,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>386.07886552931961</v>
+        <v>515.27836801380317</v>
       </c>
       <c r="C6" s="1">
-        <v>375.76305461424022</v>
+        <v>490.37626217711801</v>
       </c>
       <c r="D6" s="1">
-        <v>372.64688270438847</v>
+        <v>530.36723148766896</v>
       </c>
       <c r="E6" s="1">
         <v>375.76305461424022</v>
@@ -9279,31 +9277,31 @@
       </c>
       <c r="M6" s="14">
         <f t="shared" si="0"/>
-        <v>372.64688270438847</v>
+        <v>375.76305461424022</v>
       </c>
       <c r="N6" s="15">
         <f t="shared" si="1"/>
-        <v>1.2582583035011178E-4</v>
+        <v>8.4891428186800733E-3</v>
       </c>
       <c r="O6" s="16">
         <f t="shared" si="2"/>
-        <v>379.80000177092285</v>
+        <v>419.95330765398694</v>
       </c>
       <c r="P6" s="17">
         <f t="shared" si="3"/>
-        <v>1.9323676250463832E-2</v>
+        <v>0.12708885575412485</v>
       </c>
       <c r="Q6">
         <v>128.9635903120041</v>
       </c>
       <c r="R6" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="S6">
-        <v>18.5</v>
+        <v>12.7</v>
       </c>
       <c r="T6">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="U6">
         <v>10800.3</v>
@@ -9315,16 +9313,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>421.35733730830879</v>
+        <v>586</v>
       </c>
       <c r="C7" s="1">
-        <v>410.76305461424022</v>
+        <v>586</v>
       </c>
       <c r="D7" s="1">
-        <v>410.07886552931961</v>
+        <v>607</v>
       </c>
       <c r="E7" s="1">
         <v>419</v>
@@ -9360,23 +9358,23 @@
       </c>
       <c r="O7" s="16">
         <f t="shared" si="2"/>
-        <v>413.96490978531057</v>
+        <v>467.64498404012375</v>
       </c>
       <c r="P7" s="17">
         <f t="shared" si="3"/>
-        <v>9.4243106201183716E-3</v>
+        <v>0.14031939536728535</v>
       </c>
       <c r="Q7">
         <v>127.4124831438065</v>
       </c>
       <c r="R7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="S7">
-        <v>20.7</v>
+        <v>8.1</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>10800.2</v>
@@ -9388,16 +9386,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>438.13274595042162</v>
+        <v>416</v>
       </c>
       <c r="C8" s="1">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="D8" s="1">
-        <v>447.29822128134703</v>
+        <v>392</v>
       </c>
       <c r="E8" s="1">
         <v>447.29822128134703</v>
@@ -9425,31 +9423,31 @@
       </c>
       <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="N8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.1050228310502283</v>
       </c>
       <c r="O8" s="16">
         <f t="shared" si="2"/>
-        <v>443.16238523571565</v>
+        <v>430.51928851253876</v>
       </c>
       <c r="P8" s="17">
         <f t="shared" si="3"/>
-        <v>1.1786267661451248E-2</v>
+        <v>-1.7079249971372685E-2</v>
       </c>
       <c r="Q8">
         <v>135.1426078081131</v>
       </c>
       <c r="R8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="S8">
-        <v>15.5</v>
+        <v>14.2</v>
       </c>
       <c r="T8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U8">
         <v>9.6</v>
@@ -9461,16 +9459,16 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>460.36894658959562</v>
+        <v>480</v>
       </c>
       <c r="C9" s="1">
-        <v>461.13274595042162</v>
+        <v>450.13274595042162</v>
       </c>
       <c r="D9" s="1">
-        <v>459.90724809414741</v>
+        <v>478</v>
       </c>
       <c r="E9" s="1">
         <v>459.90724809414741</v>
@@ -9498,31 +9496,31 @@
       </c>
       <c r="M9" s="14">
         <f t="shared" si="0"/>
-        <v>459.90724809414741</v>
+        <v>450.13274595042162</v>
       </c>
       <c r="N9" s="15">
         <f t="shared" si="1"/>
-        <v>1.576015252756734E-5</v>
+        <v>-2.1237777885580247E-2</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="2"/>
-        <v>461.46318734998124</v>
+        <v>464.13556788160696</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="3"/>
-        <v>3.3989722765411239E-3</v>
+        <v>9.2097583857512124E-3</v>
       </c>
       <c r="Q9">
         <v>150.32616565227511</v>
       </c>
       <c r="R9" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="S9">
-        <v>24.8</v>
+        <v>4.8</v>
       </c>
       <c r="T9">
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U9">
         <v>14.6</v>
@@ -9534,16 +9532,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>492.90724809414741</v>
+        <v>542.66190378969054</v>
       </c>
       <c r="C10" s="1">
-        <v>499.13274595042162</v>
+        <v>560.82620530329291</v>
       </c>
       <c r="D10" s="1">
-        <v>492.90724809414741</v>
+        <v>553.90724809414746</v>
       </c>
       <c r="E10" s="1">
         <v>488.90724809414741</v>
@@ -9579,23 +9577,23 @@
       </c>
       <c r="O10" s="16">
         <f t="shared" si="2"/>
-        <v>493.43614714600278</v>
+        <v>510.68095865084433</v>
       </c>
       <c r="P10" s="17">
         <f t="shared" si="3"/>
-        <v>9.278271928825535E-3</v>
+        <v>4.4550948355173564E-2</v>
       </c>
       <c r="Q10">
         <v>148.19508061408999</v>
       </c>
       <c r="R10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="S10">
-        <v>29.3</v>
+        <v>0.5</v>
       </c>
       <c r="T10">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="U10">
         <v>19.5</v>
@@ -9607,16 +9605,16 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>535.90724809414746</v>
+        <v>623.90724809414746</v>
       </c>
       <c r="C11" s="1">
-        <v>535.90724809414746</v>
+        <v>618.90724809414746</v>
       </c>
       <c r="D11" s="1">
-        <v>558.0788655293195</v>
+        <v>594.68005426664365</v>
       </c>
       <c r="E11" s="1">
         <v>539.90724809414746</v>
@@ -9652,23 +9650,23 @@
       </c>
       <c r="O11" s="16">
         <f t="shared" si="2"/>
-        <v>538.92440983766483</v>
+        <v>559.68452871139721</v>
       </c>
       <c r="P11" s="17">
         <f t="shared" si="3"/>
-        <v>9.978279305968521E-3</v>
+        <v>4.8884049309215111E-2</v>
       </c>
       <c r="Q11">
         <v>143.0881019830704</v>
       </c>
       <c r="R11" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="S11">
-        <v>24.5</v>
+        <v>13.9</v>
       </c>
       <c r="T11">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="U11">
         <v>174.4</v>
@@ -9680,16 +9678,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>596.3238075793812</v>
+        <v>694.31767469483191</v>
       </c>
       <c r="C12" s="1">
-        <v>596.3238075793812</v>
+        <v>657.0788655293195</v>
       </c>
       <c r="D12" s="1">
-        <v>604.3238075793812</v>
+        <v>706</v>
       </c>
       <c r="E12" s="1">
         <v>596.3238075793812</v>
@@ -9725,23 +9723,23 @@
       </c>
       <c r="O12" s="16">
         <f t="shared" si="2"/>
-        <v>598.72380757938129</v>
+        <v>624.76631932798205</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="3"/>
-        <v>4.0647452278741109E-3</v>
+        <v>4.7738251430457977E-2</v>
       </c>
       <c r="Q12">
         <v>146.4605469465256</v>
       </c>
       <c r="R12" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="S12">
-        <v>31</v>
+        <v>13.2</v>
       </c>
       <c r="T12">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="U12">
         <v>2536.8000000000002</v>
@@ -9753,16 +9751,16 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>668.3238075793812</v>
+        <v>783.66190378969054</v>
       </c>
       <c r="C13" s="1">
-        <v>668.3238075793812</v>
+        <v>744.11724276862367</v>
       </c>
       <c r="D13" s="1">
-        <v>668.3238075793812</v>
+        <v>725.16552506059645</v>
       </c>
       <c r="E13" s="1">
         <v>668.3238075793812</v>
@@ -9798,23 +9796,23 @@
       </c>
       <c r="O13" s="16">
         <f t="shared" si="2"/>
-        <v>668.32380757938131</v>
+        <v>693.12113246745798</v>
       </c>
       <c r="P13" s="17">
         <f t="shared" si="3"/>
-        <v>1.4302333554987605E-2</v>
+        <v>5.193676197823343E-2</v>
       </c>
       <c r="Q13">
         <v>126.2192425489426</v>
       </c>
       <c r="R13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S13">
-        <v>28.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="T13">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="U13">
         <v>10800.3</v>
@@ -9826,16 +9824,16 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="C14" s="1">
-        <v>598</v>
+        <v>618.36067255079752</v>
       </c>
       <c r="D14" s="1">
-        <v>616.49509756796397</v>
+        <v>553.54101966249686</v>
       </c>
       <c r="E14" s="1">
         <v>611.01562118716424</v>
@@ -9863,31 +9861,31 @@
       </c>
       <c r="M14" s="14">
         <f t="shared" si="0"/>
-        <v>598</v>
+        <v>546</v>
       </c>
       <c r="N14" s="15">
         <f t="shared" si="1"/>
-        <v>6.7340067340067337E-3</v>
+        <v>-8.0808080808080815E-2</v>
       </c>
       <c r="O14" s="16">
         <f t="shared" si="2"/>
-        <v>607.25165350782208</v>
+        <v>597.29231297235515</v>
       </c>
       <c r="P14" s="17">
         <f t="shared" si="3"/>
-        <v>2.230918098959947E-2</v>
+        <v>5.5426144315743235E-3</v>
       </c>
       <c r="Q14">
         <v>137.84102799892429</v>
       </c>
       <c r="R14" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S14">
-        <v>24.1</v>
+        <v>9.5</v>
       </c>
       <c r="T14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="U14">
         <v>1.4</v>
@@ -9899,16 +9897,16 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>642.01562118716424</v>
+        <v>641.97045350115218</v>
       </c>
       <c r="C15" s="1">
-        <v>642.01562118716424</v>
+        <v>704.24880949681335</v>
       </c>
       <c r="D15" s="1">
-        <v>655.21320343559637</v>
+        <v>627.03093575315052</v>
       </c>
       <c r="E15" s="1">
         <v>655.21320343559637</v>
@@ -9944,23 +9942,23 @@
       </c>
       <c r="O15" s="16">
         <f t="shared" si="2"/>
-        <v>639.34888916198497</v>
+        <v>642.74946445610408</v>
       </c>
       <c r="P15" s="17">
         <f t="shared" si="3"/>
-        <v>2.3941206217144448E-2</v>
+        <v>2.9387354990557498E-2</v>
       </c>
       <c r="Q15">
         <v>151.03690652847291</v>
       </c>
       <c r="R15" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S15">
-        <v>30.7</v>
+        <v>7.2</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U15">
         <v>6.3</v>
@@ -9972,7 +9970,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>656</v>
@@ -10027,7 +10025,7 @@
         <v>105.9387813329697</v>
       </c>
       <c r="R16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S16">
         <v>29.8</v>
@@ -10045,7 +10043,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>700.18033988749903</v>
@@ -10100,7 +10098,7 @@
         <v>150.84501380920409</v>
       </c>
       <c r="R17" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S17">
         <v>33.200000000000003</v>
@@ -10118,7 +10116,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>771.41381265149107</v>
@@ -10173,7 +10171,7 @@
         <v>154.00807960033421</v>
       </c>
       <c r="R18" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="S18">
         <v>28.4</v>
@@ -10191,7 +10189,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>827.41381265149107</v>
@@ -10246,7 +10244,7 @@
         <v>156.019381070137</v>
       </c>
       <c r="R19" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="S19">
         <v>27.2</v>
@@ -10264,7 +10262,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>408.62277660168382</v>
@@ -10319,7 +10317,7 @@
         <v>104.2688856363297</v>
       </c>
       <c r="R20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="S20">
         <v>27</v>
@@ -10337,7 +10335,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>436.96702626232491</v>
@@ -10392,7 +10390,7 @@
         <v>71.541067504882818</v>
       </c>
       <c r="R21" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="S21">
         <v>29.7</v>
@@ -10410,7 +10408,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>520.7865728658644</v>
@@ -10465,7 +10463,7 @@
         <v>65.837493896484375</v>
       </c>
       <c r="R22" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="S22">
         <v>25.5</v>
@@ -10483,7 +10481,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>558.7865728658644</v>
@@ -10538,7 +10536,7 @@
         <v>59.771055197715761</v>
       </c>
       <c r="R23" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="S23">
         <v>31.2</v>
@@ -10556,7 +10554,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>558.3016516106934</v>
@@ -10611,7 +10609,7 @@
         <v>59.914775013923652</v>
       </c>
       <c r="R24" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="S24">
         <v>27</v>
@@ -10629,7 +10627,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>613.3016516106934</v>
@@ -10684,7 +10682,7 @@
         <v>60.071897983551032</v>
       </c>
       <c r="R25" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="S25">
         <v>22</v>
@@ -10714,8 +10712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10725,7 +10724,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="L1" s="9" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>1</v>
@@ -10740,222 +10739,180 @@
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>334</v>
+        <v>686</v>
       </c>
       <c r="C2" s="1">
-        <v>334</v>
+        <v>781</v>
       </c>
       <c r="D2" s="1">
-        <v>334</v>
-      </c>
-      <c r="E2" s="1">
-        <v>353</v>
-      </c>
-      <c r="F2" s="1">
-        <v>338</v>
-      </c>
-      <c r="G2" s="1">
-        <v>334</v>
-      </c>
-      <c r="H2" s="1">
-        <v>339</v>
-      </c>
-      <c r="I2" s="1">
-        <v>345</v>
-      </c>
-      <c r="J2" s="1">
-        <v>360</v>
-      </c>
-      <c r="K2" s="1">
-        <v>334</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="13">
-        <v>334</v>
+        <v>690.1</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" ref="M2:M25" si="0">MIN(B2:K2)</f>
-        <v>334</v>
-      </c>
-      <c r="N2" s="15">
+        <v>668</v>
+      </c>
+      <c r="N2" s="49">
         <f t="shared" ref="N2:N25" si="1">(M2-L2) / L2</f>
-        <v>0</v>
+        <v>-3.2024344297927866E-2</v>
       </c>
       <c r="O2" s="16">
         <f t="shared" ref="O2:O25" si="2">AVERAGE(B2:K2)</f>
-        <v>340.5</v>
+        <v>711.66666666666663</v>
       </c>
       <c r="P2" s="17">
         <f t="shared" ref="P2:P25" si="3">(O2-L2)/L2</f>
-        <v>1.9461077844311378E-2</v>
+        <v>3.1251509443075795E-2</v>
       </c>
       <c r="Q2">
         <v>169.31504783630371</v>
       </c>
       <c r="R2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="S2">
-        <v>30.2</v>
+        <v>3.2</v>
       </c>
       <c r="T2">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="U2">
         <v>10807.4</v>
       </c>
       <c r="V2" s="21">
-        <f>(Q2-U2)/U2</f>
+        <f t="shared" ref="V2:V25" si="4">(Q2-U2)/U2</f>
         <v>-0.98433341526765883</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>383</v>
+        <v>816</v>
       </c>
       <c r="C3" s="1">
-        <v>378</v>
+        <v>843</v>
       </c>
       <c r="D3" s="1">
-        <v>403</v>
-      </c>
-      <c r="E3" s="1">
-        <v>383</v>
-      </c>
-      <c r="F3" s="1">
-        <v>392</v>
-      </c>
-      <c r="G3" s="1">
-        <v>379</v>
-      </c>
-      <c r="H3" s="1">
-        <v>387</v>
-      </c>
-      <c r="I3" s="1">
-        <v>384</v>
-      </c>
-      <c r="J3" s="1">
-        <v>385.45403774521299</v>
-      </c>
-      <c r="K3" s="1">
-        <v>384</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="13">
-        <v>371.4</v>
+        <v>813.1</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" si="0"/>
-        <v>378</v>
-      </c>
-      <c r="N3" s="15">
+        <v>790</v>
+      </c>
+      <c r="N3" s="49">
         <f t="shared" si="1"/>
-        <v>1.7770597738287625E-2</v>
+        <v>-2.840978969376463E-2</v>
       </c>
       <c r="O3" s="16">
         <f t="shared" si="2"/>
-        <v>385.84540377452129</v>
+        <v>816.33333333333337</v>
       </c>
       <c r="P3" s="17">
         <f t="shared" si="3"/>
-        <v>3.889446358244833E-2</v>
+        <v>3.9765506497765933E-3</v>
       </c>
       <c r="Q3">
         <v>198.11227650642391</v>
       </c>
       <c r="R3" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="S3">
-        <v>30.3</v>
+        <v>3.2</v>
       </c>
       <c r="T3">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>10800.5</v>
       </c>
       <c r="V3" s="21">
-        <f t="shared" ref="V3:V25" si="4">(Q3-U3)/U3</f>
+        <f t="shared" si="4"/>
         <v>-0.98165711990126159</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>420</v>
+        <v>913</v>
       </c>
       <c r="C4" s="1">
-        <v>422.16112427806092</v>
+        <v>905</v>
       </c>
       <c r="D4" s="1">
-        <v>431.80128589788592</v>
-      </c>
-      <c r="E4" s="1">
-        <v>423.40140285293518</v>
-      </c>
-      <c r="F4" s="1">
-        <v>415.61552812808827</v>
-      </c>
-      <c r="G4" s="1">
-        <v>422</v>
-      </c>
-      <c r="H4" s="1">
-        <v>429</v>
-      </c>
-      <c r="I4" s="1">
-        <v>436.01567698921428</v>
-      </c>
-      <c r="J4" s="1">
-        <v>437</v>
-      </c>
-      <c r="K4" s="1">
-        <v>429</v>
-      </c>
+        <v>941</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="13">
-        <v>411.2</v>
+        <v>924.2</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>415.61552812808827</v>
-      </c>
-      <c r="N4" s="15">
+        <v>905</v>
+      </c>
+      <c r="N4" s="49">
         <f t="shared" si="1"/>
-        <v>1.0738152062471506E-2</v>
+        <v>-2.0774724085695785E-2</v>
       </c>
       <c r="O4" s="16">
         <f t="shared" si="2"/>
-        <v>426.59950181461846</v>
+        <v>919.66666666666663</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="3"/>
-        <v>3.7450150327379562E-2</v>
+        <v>-4.9051431869004724E-3</v>
       </c>
       <c r="Q4">
         <v>238.79450597763059</v>
       </c>
       <c r="R4" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="S4">
-        <v>24.4</v>
+        <v>5</v>
       </c>
       <c r="T4">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="U4">
         <v>10800.5</v>
@@ -10967,68 +10924,54 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>477.79944773173179</v>
+        <v>1049</v>
       </c>
       <c r="C5" s="1">
-        <v>451.13274595042162</v>
+        <v>1042</v>
       </c>
       <c r="D5" s="1">
-        <v>464.1775851857098</v>
-      </c>
-      <c r="E5" s="1">
-        <v>470.62529317031209</v>
-      </c>
-      <c r="F5" s="1">
-        <v>467</v>
-      </c>
-      <c r="G5" s="1">
-        <v>481</v>
-      </c>
-      <c r="H5" s="1">
-        <v>464.1775851857098</v>
-      </c>
-      <c r="I5" s="1">
-        <v>476</v>
-      </c>
-      <c r="J5" s="1">
-        <v>473.63073504392798</v>
-      </c>
-      <c r="K5" s="1">
-        <v>463.11077027627482</v>
-      </c>
+        <v>1024</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="13">
-        <v>448.1</v>
+        <v>1166.3599999999999</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" si="0"/>
-        <v>451.13274595042162</v>
-      </c>
-      <c r="N5" s="18">
+        <v>1024</v>
+      </c>
+      <c r="N5" s="49">
         <f t="shared" si="1"/>
-        <v>6.7680114939111793E-3</v>
+        <v>-0.122054940155698</v>
       </c>
       <c r="O5" s="16">
         <f t="shared" si="2"/>
-        <v>468.86541625440879</v>
+        <v>1038.3333333333333</v>
       </c>
       <c r="P5" s="17">
         <f t="shared" si="3"/>
-        <v>4.634103158761161E-2</v>
+        <v>-0.10976599563313784</v>
       </c>
       <c r="Q5">
         <v>243.7045548439026</v>
       </c>
       <c r="R5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="S5">
-        <v>33.799999999999997</v>
+        <v>4.5</v>
       </c>
       <c r="T5">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U5">
         <v>10810.3</v>
@@ -11040,68 +10983,54 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>521.75765298066335</v>
+        <v>1142</v>
       </c>
       <c r="C6" s="1">
-        <v>509.1775851857098</v>
+        <v>1119</v>
       </c>
       <c r="D6" s="1">
-        <v>491.09975124224178</v>
-      </c>
-      <c r="E6" s="1">
-        <v>517.85831846051019</v>
-      </c>
-      <c r="F6" s="1">
-        <v>510.91209328486673</v>
-      </c>
-      <c r="G6" s="1">
-        <v>506.09975124224178</v>
-      </c>
-      <c r="H6" s="1">
-        <v>509.1775851857098</v>
-      </c>
-      <c r="I6" s="1">
-        <v>527.09975124224184</v>
-      </c>
-      <c r="J6" s="1">
-        <v>523.64175407796108</v>
-      </c>
-      <c r="K6" s="1">
-        <v>494.87489146391641</v>
-      </c>
+        <v>1119</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="13">
-        <v>490.2</v>
+        <v>1178.0999999999999</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" si="0"/>
-        <v>491.09975124224178</v>
-      </c>
-      <c r="N6" s="15">
+        <v>1119</v>
+      </c>
+      <c r="N6" s="49">
         <f t="shared" si="1"/>
-        <v>1.8354778503504514E-3</v>
+        <v>-5.0165520753755972E-2</v>
       </c>
       <c r="O6" s="16">
         <f t="shared" si="2"/>
-        <v>511.16991343660629</v>
+        <v>1126.6666666666667</v>
       </c>
       <c r="P6" s="17">
         <f t="shared" si="3"/>
-        <v>4.2778281184427384E-2</v>
+        <v>-4.3657867187278813E-2</v>
       </c>
       <c r="Q6">
         <v>275.236771440506</v>
       </c>
       <c r="R6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="S6">
-        <v>31.1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U6">
         <v>10807.5</v>
@@ -11113,68 +11042,54 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>542.50115409517696</v>
+        <v>1217</v>
       </c>
       <c r="C7" s="1">
-        <v>564.36524314308485</v>
+        <v>1259</v>
       </c>
       <c r="D7" s="1">
-        <v>562.89005521680065</v>
-      </c>
-      <c r="E7" s="1">
-        <v>520.88470913081824</v>
-      </c>
-      <c r="F7" s="1">
-        <v>549.50115409517696</v>
-      </c>
-      <c r="G7" s="1">
-        <v>547.11077027627482</v>
-      </c>
-      <c r="H7" s="1">
-        <v>536.09975124224184</v>
-      </c>
-      <c r="I7" s="1">
-        <v>558.91209328486661</v>
-      </c>
-      <c r="J7" s="1">
-        <v>539.09975124224184</v>
-      </c>
-      <c r="K7" s="1">
-        <v>556.02738415404838</v>
-      </c>
+        <v>1229</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="13">
-        <v>520.5</v>
+        <v>1218.0999999999999</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="0"/>
-        <v>520.88470913081824</v>
-      </c>
-      <c r="N7" s="15">
+        <v>1217</v>
+      </c>
+      <c r="N7" s="49">
         <f t="shared" si="1"/>
-        <v>7.3911456449229028E-4</v>
+        <v>-9.0304572695173557E-4</v>
       </c>
       <c r="O7" s="16">
         <f t="shared" si="2"/>
-        <v>547.7392065880731</v>
+        <v>1235</v>
       </c>
       <c r="P7" s="17">
         <f t="shared" si="3"/>
-        <v>5.2332769621658219E-2</v>
+        <v>1.3874066168623342E-2</v>
       </c>
       <c r="Q7">
         <v>261.60764360427862</v>
       </c>
       <c r="R7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="S7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="T7">
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="U7">
         <v>10801</v>
@@ -11186,68 +11101,54 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>499</v>
+        <v>1062</v>
       </c>
       <c r="C8" s="1">
-        <v>535.79464974011216</v>
+        <v>1044</v>
       </c>
       <c r="D8" s="1">
-        <v>527</v>
-      </c>
-      <c r="E8" s="1">
-        <v>520</v>
-      </c>
-      <c r="F8" s="1">
-        <v>496.65552217265719</v>
-      </c>
-      <c r="G8" s="1">
-        <v>535</v>
-      </c>
-      <c r="H8" s="1">
-        <v>535</v>
-      </c>
-      <c r="I8" s="1">
-        <v>500.98571136907179</v>
-      </c>
-      <c r="J8" s="1">
-        <v>542</v>
-      </c>
-      <c r="K8" s="1">
-        <v>535</v>
-      </c>
+        <v>985.42875284835714</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="13">
-        <v>494.2</v>
+        <v>909.7</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>496.65552217265719</v>
-      </c>
-      <c r="N8" s="15">
+        <v>985.42875284835714</v>
+      </c>
+      <c r="N8" s="18">
         <f t="shared" si="1"/>
-        <v>4.968681045441516E-3</v>
+        <v>8.3245853411407153E-2</v>
       </c>
       <c r="O8" s="16">
         <f t="shared" si="2"/>
-        <v>522.64358832818402</v>
+        <v>1030.4762509494524</v>
       </c>
       <c r="P8" s="17">
         <f t="shared" si="3"/>
-        <v>5.7554812481149402E-2</v>
+        <v>0.132764923545622</v>
       </c>
       <c r="Q8">
         <v>258.18930656909941</v>
       </c>
       <c r="R8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="S8">
-        <v>30.2</v>
+        <v>2.9</v>
       </c>
       <c r="T8">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="U8">
         <v>694.3</v>
@@ -11259,68 +11160,54 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
-        <v>561</v>
+        <v>1164.4287528483569</v>
       </c>
       <c r="C9" s="1">
-        <v>560</v>
+        <v>1177.946775094603</v>
       </c>
       <c r="D9" s="1">
-        <v>559.52277622223573</v>
-      </c>
-      <c r="E9" s="1">
-        <v>560.3174259623479</v>
-      </c>
-      <c r="F9" s="1">
-        <v>545.37840265595025</v>
-      </c>
-      <c r="G9" s="1">
-        <v>538.52277622223573</v>
-      </c>
-      <c r="H9" s="1">
-        <v>564.75163055099483</v>
-      </c>
-      <c r="I9" s="1">
-        <v>561</v>
-      </c>
-      <c r="J9" s="1">
-        <v>561</v>
-      </c>
-      <c r="K9" s="1">
-        <v>525.79464974011216</v>
-      </c>
+        <v>1189.567454760582</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="13">
-        <v>514.20000000000005</v>
+        <v>1057.1300000000001</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="0"/>
-        <v>525.79464974011216</v>
-      </c>
-      <c r="N9" s="15">
+        <v>1164.4287528483569</v>
+      </c>
+      <c r="N9" s="18">
         <f t="shared" si="1"/>
-        <v>2.2548910424177591E-2</v>
+        <v>0.10150005472208412</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="2"/>
-        <v>553.72876613538756</v>
+        <v>1177.3143275678474</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" si="3"/>
-        <v>7.687430209137984E-2</v>
+        <v>0.11368926013626258</v>
       </c>
       <c r="Q9">
         <v>279.59178922176358</v>
       </c>
       <c r="R9" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="S9">
-        <v>32.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T9">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>9285.7999999999993</v>
@@ -11332,68 +11219,54 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
-        <v>555.70189783425963</v>
+        <v>1312</v>
       </c>
       <c r="C10" s="1">
-        <v>633.98571136907185</v>
+        <v>1300</v>
       </c>
       <c r="D10" s="1">
-        <v>577.90622148576085</v>
-      </c>
-      <c r="E10" s="1">
-        <v>562.14001819519376</v>
-      </c>
-      <c r="F10" s="1">
-        <v>587.70189783425963</v>
-      </c>
-      <c r="G10" s="1">
-        <v>590.74524290015302</v>
-      </c>
-      <c r="H10" s="1">
-        <v>550.79464974011216</v>
-      </c>
-      <c r="I10" s="1">
-        <v>592.70189783425963</v>
-      </c>
-      <c r="J10" s="1">
-        <v>564.50169254001707</v>
-      </c>
-      <c r="K10" s="1">
-        <v>641.67754161536811</v>
-      </c>
+        <v>1347</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="13">
-        <v>550.5</v>
+        <v>1134.9000000000001</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="0"/>
-        <v>550.79464974011216</v>
-      </c>
-      <c r="N10" s="15">
+        <v>1300</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="1"/>
-        <v>5.3524021818739922E-4</v>
+        <v>0.14547537227949589</v>
       </c>
       <c r="O10" s="16">
         <f t="shared" si="2"/>
-        <v>585.78567713484551</v>
+        <v>1319.6666666666667</v>
       </c>
       <c r="P10" s="17">
         <f t="shared" si="3"/>
-        <v>6.4097506148674863E-2</v>
+        <v>0.16280435868064733</v>
       </c>
       <c r="Q10">
         <v>268.88152313232422</v>
       </c>
       <c r="R10" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="S10">
-        <v>29.1</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="U10">
         <v>10812.5</v>
@@ -11405,68 +11278,54 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>627.90724809414746</v>
+        <v>1425</v>
       </c>
       <c r="C11" s="1">
-        <v>584.74189187882848</v>
+        <v>1450</v>
       </c>
       <c r="D11" s="1">
-        <v>622.25371247638077</v>
-      </c>
-      <c r="E11" s="1">
-        <v>619.90724809414746</v>
-      </c>
-      <c r="F11" s="1">
-        <v>631.21603458822642</v>
-      </c>
-      <c r="G11" s="1">
-        <v>627.10887775206629</v>
-      </c>
-      <c r="H11" s="1">
-        <v>620.74189187882848</v>
-      </c>
-      <c r="I11" s="1">
-        <v>605.64761515876239</v>
-      </c>
-      <c r="J11" s="1">
-        <v>592.88564176035356</v>
-      </c>
-      <c r="K11" s="1">
-        <v>611.28962302885088</v>
-      </c>
+        <v>1450</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="13">
-        <v>577.29999999999995</v>
+        <v>1173.3</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" si="0"/>
-        <v>584.74189187882848</v>
+        <v>1425</v>
       </c>
       <c r="N11" s="18">
         <f t="shared" si="1"/>
-        <v>1.2890857229912574E-2</v>
+        <v>0.21452313986192795</v>
       </c>
       <c r="O11" s="16">
         <f t="shared" si="2"/>
-        <v>614.36997847105908</v>
+        <v>1441.6666666666667</v>
       </c>
       <c r="P11" s="17">
         <f t="shared" si="3"/>
-        <v>6.4212677067485069E-2</v>
+        <v>0.22872808886616108</v>
       </c>
       <c r="Q11">
         <v>267.82799317836759</v>
       </c>
       <c r="R11" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="S11">
-        <v>36.5</v>
+        <v>3.3</v>
       </c>
       <c r="T11">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="U11">
         <v>10801.8</v>
@@ -11478,68 +11337,54 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
-        <v>668.90724809414746</v>
+        <v>1610.4287528483569</v>
       </c>
       <c r="C12" s="1">
-        <v>668.90724809414746</v>
+        <v>1610.4287528483569</v>
       </c>
       <c r="D12" s="1">
-        <v>662.06569945820979</v>
-      </c>
-      <c r="E12" s="1">
-        <v>668.90724809414746</v>
-      </c>
-      <c r="F12" s="1">
-        <v>663.26800110730892</v>
-      </c>
-      <c r="G12" s="1">
-        <v>669.74189187882848</v>
-      </c>
-      <c r="H12" s="1">
-        <v>668.90724809414746</v>
-      </c>
-      <c r="I12" s="1">
-        <v>668.90724809414746</v>
-      </c>
-      <c r="J12" s="1">
-        <v>659.20174595729827</v>
-      </c>
-      <c r="K12" s="1">
-        <v>668.90724809414746</v>
-      </c>
+        <v>1641</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="13">
-        <v>643.29999999999995</v>
+        <v>1394.9</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="0"/>
-        <v>659.20174595729827</v>
-      </c>
-      <c r="N12" s="15">
+        <v>1610.4287528483569</v>
+      </c>
+      <c r="N12" s="18">
         <f t="shared" si="1"/>
-        <v>2.4719020608267243E-2</v>
+        <v>0.1545119742263652</v>
       </c>
       <c r="O12" s="16">
         <f t="shared" si="2"/>
-        <v>666.77208269665311</v>
+        <v>1620.6191685655713</v>
       </c>
       <c r="P12" s="17">
         <f t="shared" si="3"/>
-        <v>3.6486993155064762E-2</v>
+        <v>0.16181745542015283</v>
       </c>
       <c r="Q12">
         <v>225.62088739871979</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="S12">
-        <v>33.5</v>
+        <v>4.3</v>
       </c>
       <c r="T12">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="U12">
         <v>10800.7</v>
@@ -11551,68 +11396,54 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
-        <v>720.66190378969054</v>
+        <v>1744.4287528483569</v>
       </c>
       <c r="C13" s="1">
-        <v>712.24308976169334</v>
+        <v>1725</v>
       </c>
       <c r="D13" s="1">
-        <v>737.66190378969054</v>
-      </c>
-      <c r="E13" s="1">
-        <v>725.90724809414746</v>
-      </c>
-      <c r="F13" s="1">
-        <v>717.90724809414746</v>
-      </c>
-      <c r="G13" s="1">
-        <v>717.90724809414746</v>
-      </c>
-      <c r="H13" s="1">
-        <v>716.76153610105155</v>
-      </c>
-      <c r="I13" s="1">
-        <v>705.90724809414746</v>
-      </c>
-      <c r="J13" s="1">
-        <v>730.29822128134697</v>
-      </c>
-      <c r="K13" s="1">
-        <v>717.90724809414746</v>
-      </c>
+        <v>1733.591986690124</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="13">
-        <v>719.1</v>
+        <v>1601.7</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" si="0"/>
-        <v>705.90724809414746</v>
+        <v>1725</v>
       </c>
       <c r="N13" s="20">
         <f t="shared" si="1"/>
-        <v>-1.8346199285012597E-2</v>
+        <v>7.6980707997752362E-2</v>
       </c>
       <c r="O13" s="16">
         <f t="shared" si="2"/>
-        <v>720.31628951942116</v>
+        <v>1734.3402465128268</v>
       </c>
       <c r="P13" s="17">
         <f t="shared" si="3"/>
-        <v>1.691405255765733E-3</v>
+        <v>8.2812166143988702E-2</v>
       </c>
       <c r="Q13">
         <v>153.24489209651949</v>
       </c>
       <c r="R13" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="S13">
-        <v>22.5</v>
+        <v>3.2</v>
       </c>
       <c r="T13">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="U13">
         <v>10803.5</v>
@@ -11624,68 +11455,54 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
-        <v>774</v>
+        <v>1511</v>
       </c>
       <c r="C14" s="1">
-        <v>743.00796519048117</v>
+        <v>1510.581166345419</v>
       </c>
       <c r="D14" s="1">
-        <v>743.96852694888787</v>
-      </c>
-      <c r="E14" s="1">
-        <v>743.5941525389901</v>
-      </c>
-      <c r="F14" s="1">
-        <v>725</v>
-      </c>
-      <c r="G14" s="1">
-        <v>772</v>
-      </c>
-      <c r="H14" s="1">
-        <v>726.5941525389901</v>
-      </c>
-      <c r="I14" s="1">
-        <v>727</v>
-      </c>
-      <c r="J14" s="1">
-        <v>730</v>
-      </c>
-      <c r="K14" s="1">
-        <v>731.00796519048117</v>
-      </c>
+        <v>1475.495097567964</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="13">
-        <v>717.7</v>
+        <v>1315.9</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="0"/>
-        <v>725</v>
-      </c>
-      <c r="N14" s="15">
+        <v>1475.495097567964</v>
+      </c>
+      <c r="N14" s="18">
         <f t="shared" si="1"/>
-        <v>1.0171380799777002E-2</v>
+        <v>0.1212820864563902</v>
       </c>
       <c r="O14" s="16">
         <f t="shared" si="2"/>
-        <v>741.61727624078299</v>
+        <v>1499.0254213044609</v>
       </c>
       <c r="P14" s="17">
         <f t="shared" si="3"/>
-        <v>3.3324893744995039E-2</v>
+        <v>0.13916363044643271</v>
       </c>
       <c r="Q14">
         <v>129.4715922355652</v>
       </c>
       <c r="R14" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="S14">
-        <v>31.9</v>
+        <v>5.6</v>
       </c>
       <c r="T14">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="U14">
         <v>161.30000000000001</v>
@@ -11697,68 +11514,54 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
-        <v>791.44505502581956</v>
+        <v>1648</v>
       </c>
       <c r="C15" s="1">
-        <v>771.46201293240983</v>
+        <v>1656</v>
       </c>
       <c r="D15" s="1">
-        <v>773.82269270740767</v>
-      </c>
-      <c r="E15" s="1">
-        <v>761.82269270740767</v>
-      </c>
-      <c r="F15" s="1">
-        <v>761.95483231398805</v>
-      </c>
-      <c r="G15" s="1">
-        <v>773.82269270740767</v>
-      </c>
-      <c r="H15" s="1">
-        <v>787.59222598672568</v>
-      </c>
-      <c r="I15" s="1">
-        <v>771.46201293240983</v>
-      </c>
-      <c r="J15" s="1">
-        <v>791.60977372615434</v>
-      </c>
-      <c r="K15" s="1">
-        <v>765.01562118716424</v>
-      </c>
+        <v>1636</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="13">
-        <v>750.4</v>
+        <v>1443</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" si="0"/>
-        <v>761.82269270740767</v>
-      </c>
-      <c r="N15" s="15">
+        <v>1636</v>
+      </c>
+      <c r="N15" s="18">
         <f t="shared" si="1"/>
-        <v>1.5222138469359931E-2</v>
+        <v>0.13374913374913375</v>
       </c>
       <c r="O15" s="16">
         <f t="shared" si="2"/>
-        <v>775.00096122268951</v>
+        <v>1646.6666666666667</v>
       </c>
       <c r="P15" s="17">
         <f t="shared" si="3"/>
-        <v>3.278379693855215E-2</v>
+        <v>0.14114114114114118</v>
       </c>
       <c r="Q15">
         <v>173.15745217800139</v>
       </c>
       <c r="R15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="S15">
-        <v>35.700000000000003</v>
+        <v>1.5</v>
       </c>
       <c r="T15">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="U15">
         <v>917</v>
@@ -11770,68 +11573,54 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
-        <v>820.44505502581956</v>
+        <v>1913</v>
       </c>
       <c r="C16" s="1">
-        <v>821.39935964618746</v>
+        <v>1875</v>
       </c>
       <c r="D16" s="1">
-        <v>793.00796519048117</v>
-      </c>
-      <c r="E16" s="1">
-        <v>833.21320343559637</v>
-      </c>
-      <c r="F16" s="1">
-        <v>815.01562118716424</v>
-      </c>
-      <c r="G16" s="1">
-        <v>820.15475947422647</v>
-      </c>
-      <c r="H16" s="1">
-        <v>834.60977372615434</v>
-      </c>
-      <c r="I16" s="1">
-        <v>803.66098005038316</v>
-      </c>
-      <c r="J16" s="1">
-        <v>821.39935964618746</v>
-      </c>
-      <c r="K16" s="1">
-        <v>824.51891066051007</v>
-      </c>
+        <v>1861.555242563195</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="13">
-        <v>772</v>
+        <v>1670.41</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" si="0"/>
-        <v>793.00796519048117</v>
-      </c>
-      <c r="N16" s="15">
+        <v>1861.555242563195</v>
+      </c>
+      <c r="N16" s="18">
         <f t="shared" si="1"/>
-        <v>2.7212390143110329E-2</v>
+        <v>0.11443013545368794</v>
       </c>
       <c r="O16" s="16">
         <f t="shared" si="2"/>
-        <v>818.74249880427112</v>
+        <v>1883.1850808543984</v>
       </c>
       <c r="P16" s="17">
         <f t="shared" si="3"/>
-        <v>6.0547278243874514E-2</v>
+        <v>0.12737895537885807</v>
       </c>
       <c r="Q16">
         <v>259.94232494831078</v>
       </c>
       <c r="R16" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="S16">
-        <v>34.4</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U16">
         <v>1103.8</v>
@@ -11843,68 +11632,54 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
-        <v>905</v>
+        <v>1988</v>
       </c>
       <c r="C17" s="1">
-        <v>885.01562118716424</v>
+        <v>2034</v>
       </c>
       <c r="D17" s="1">
-        <v>892.18033988749903</v>
-      </c>
-      <c r="E17" s="1">
-        <v>885.01562118716424</v>
-      </c>
-      <c r="F17" s="1">
-        <v>892.18033988749903</v>
-      </c>
-      <c r="G17" s="1">
-        <v>892.18033988749903</v>
-      </c>
-      <c r="H17" s="1">
-        <v>876.97045350115218</v>
-      </c>
-      <c r="I17" s="1">
-        <v>832.02358637764542</v>
-      </c>
-      <c r="J17" s="1">
-        <v>829.02358637764542</v>
-      </c>
-      <c r="K17" s="1">
-        <v>887.8557773429618</v>
-      </c>
+        <v>1995</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="13">
-        <v>862.4</v>
+        <v>1848.18</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="0"/>
-        <v>829.02358637764542</v>
-      </c>
-      <c r="N17" s="15">
+        <v>1988</v>
+      </c>
+      <c r="N17" s="18">
         <f t="shared" si="1"/>
-        <v>-3.8701778319056773E-2</v>
+        <v>7.5652804380525671E-2</v>
       </c>
       <c r="O17" s="16">
         <f t="shared" si="2"/>
-        <v>877.74456656362304</v>
+        <v>2005.6666666666667</v>
       </c>
       <c r="P17" s="17">
         <f t="shared" si="3"/>
-        <v>1.7792864753737318E-2</v>
+        <v>8.5211757873511609E-2</v>
       </c>
       <c r="Q17">
         <v>240.7173928260803</v>
       </c>
       <c r="R17" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="S17">
-        <v>36.799999999999997</v>
+        <v>5.7</v>
       </c>
       <c r="T17">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="U17">
         <v>10811.3</v>
@@ -11916,68 +11691,54 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
-        <v>930.41381265149107</v>
+        <v>2267</v>
       </c>
       <c r="C18" s="1">
-        <v>908.42943383865531</v>
+        <v>2215.3884361523178</v>
       </c>
       <c r="D18" s="1">
-        <v>905.41381265149107</v>
-      </c>
-      <c r="E18" s="1">
-        <v>957</v>
-      </c>
-      <c r="F18" s="1">
-        <v>930.41381265149107</v>
-      </c>
-      <c r="G18" s="1">
-        <v>907.00796519048106</v>
-      </c>
-      <c r="H18" s="1">
-        <v>930.41381265149107</v>
-      </c>
-      <c r="I18" s="1">
-        <v>930.41381265149107</v>
-      </c>
-      <c r="J18" s="1">
-        <v>980.18033988749903</v>
-      </c>
-      <c r="K18" s="1">
-        <v>988.01562118716424</v>
-      </c>
+        <v>2329</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="13">
-        <v>900.4</v>
+        <v>2068.21</v>
       </c>
       <c r="M18" s="14">
         <f t="shared" si="0"/>
-        <v>905.41381265149107</v>
-      </c>
-      <c r="N18" s="15">
+        <v>2215.3884361523178</v>
+      </c>
+      <c r="N18" s="18">
         <f t="shared" si="1"/>
-        <v>5.5684280891726938E-3</v>
+        <v>7.1162230214686983E-2</v>
       </c>
       <c r="O18" s="16">
         <f t="shared" si="2"/>
-        <v>936.77024233612542</v>
+        <v>2270.4628120507728</v>
       </c>
       <c r="P18" s="17">
         <f t="shared" si="3"/>
-        <v>4.0393427738922086E-2</v>
+        <v>9.7791235924191797E-2</v>
       </c>
       <c r="Q18">
         <v>277.86313073635102</v>
       </c>
       <c r="R18" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="S18">
-        <v>22.7</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="U18">
         <v>10803.9</v>
@@ -11989,68 +11750,54 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>978</v>
+        <v>2449.5941525389899</v>
       </c>
       <c r="C19" s="1">
-        <v>973.41381265149107</v>
+        <v>2429</v>
       </c>
       <c r="D19" s="1">
-        <v>984.59415253898999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F19" s="1">
-        <v>985.41381265149107</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1024</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1020.0079651904809</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1024</v>
-      </c>
-      <c r="J19" s="1">
-        <v>992.00796519048106</v>
-      </c>
-      <c r="K19" s="1">
-        <v>975.01562118716424</v>
-      </c>
+        <v>2427</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="13">
-        <v>985.4</v>
+        <v>2252.9</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" si="0"/>
-        <v>973.41381265149107</v>
-      </c>
-      <c r="N19" s="15">
+        <v>2427</v>
+      </c>
+      <c r="N19" s="18">
         <f t="shared" si="1"/>
-        <v>-1.2163778514825356E-2</v>
+        <v>7.7278174796928362E-2</v>
       </c>
       <c r="O19" s="16">
         <f t="shared" si="2"/>
-        <v>998.04533294100986</v>
+        <v>2435.1980508463298</v>
       </c>
       <c r="P19" s="17">
         <f t="shared" si="3"/>
-        <v>1.2832690218195539E-2</v>
+        <v>8.0917062828500919E-2</v>
       </c>
       <c r="Q19">
         <v>280.87981829643252</v>
       </c>
       <c r="R19" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="S19">
-        <v>21.7</v>
+        <v>2.7</v>
       </c>
       <c r="T19">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="U19">
         <v>10804.7</v>
@@ -12062,68 +11809,54 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
-        <v>627</v>
+        <v>1121</v>
       </c>
       <c r="C20" s="1">
-        <v>624</v>
+        <v>1101</v>
       </c>
       <c r="D20" s="1">
-        <v>624</v>
-      </c>
-      <c r="E20" s="1">
-        <v>624</v>
-      </c>
-      <c r="F20" s="1">
-        <v>621</v>
-      </c>
-      <c r="G20" s="1">
-        <v>672</v>
-      </c>
-      <c r="H20" s="1">
-        <v>617</v>
-      </c>
-      <c r="I20" s="1">
-        <v>629</v>
-      </c>
-      <c r="J20" s="1">
-        <v>624</v>
-      </c>
-      <c r="K20" s="1">
-        <v>672</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="13">
-        <v>624</v>
+        <v>1102.3499999999999</v>
       </c>
       <c r="M20" s="14">
         <f t="shared" si="0"/>
-        <v>617</v>
-      </c>
-      <c r="N20" s="15">
+        <v>1081</v>
+      </c>
+      <c r="N20" s="49">
         <f t="shared" si="1"/>
-        <v>-1.1217948717948718E-2</v>
+        <v>-1.9367714428266805E-2</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" si="2"/>
-        <v>633.4</v>
+        <v>1101</v>
       </c>
       <c r="P20" s="17">
         <f t="shared" si="3"/>
-        <v>1.5064102564102528E-2</v>
+        <v>-1.2246564158388071E-3</v>
       </c>
       <c r="Q20">
         <v>142.84004046916959</v>
       </c>
       <c r="R20" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="S20">
-        <v>19.8</v>
+        <v>5.4</v>
       </c>
       <c r="T20">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="U20">
         <v>10819.2</v>
@@ -12135,68 +11868,54 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
-        <v>752</v>
+        <v>1270</v>
       </c>
       <c r="C21" s="1">
-        <v>756</v>
+        <v>1282</v>
       </c>
       <c r="D21" s="1">
-        <v>752</v>
-      </c>
-      <c r="E21" s="1">
-        <v>704.85367404067813</v>
-      </c>
-      <c r="F21" s="1">
-        <v>736.09109920709591</v>
-      </c>
-      <c r="G21" s="1">
-        <v>699.17484234726771</v>
-      </c>
-      <c r="H21" s="1">
-        <v>752</v>
-      </c>
-      <c r="I21" s="1">
-        <v>745.25169778115162</v>
-      </c>
-      <c r="J21" s="1">
-        <v>752</v>
-      </c>
-      <c r="K21" s="1">
-        <v>752</v>
-      </c>
+        <v>1278</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="13">
-        <v>686</v>
+        <v>1496.39</v>
       </c>
       <c r="M21" s="14">
         <f t="shared" si="0"/>
-        <v>699.17484234726771</v>
-      </c>
-      <c r="N21" s="18">
+        <v>1270</v>
+      </c>
+      <c r="N21" s="49">
         <f t="shared" si="1"/>
-        <v>1.9205309544122032E-2</v>
+        <v>-0.1512907731273265</v>
       </c>
       <c r="O21" s="16">
         <f t="shared" si="2"/>
-        <v>740.13713133761939</v>
+        <v>1276.6666666666667</v>
       </c>
       <c r="P21" s="17">
         <f t="shared" si="3"/>
-        <v>7.8917101075246923E-2</v>
+        <v>-0.14683560658206307</v>
       </c>
       <c r="Q21">
         <v>132.13959040641791</v>
       </c>
       <c r="R21" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="S21">
-        <v>27.6</v>
+        <v>3.6</v>
       </c>
       <c r="T21">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="U21">
         <v>10814.6</v>
@@ -12208,68 +11927,54 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
-        <v>850.0671288909773</v>
+        <v>1453</v>
       </c>
       <c r="C22" s="1">
-        <v>776.33187621118702</v>
+        <v>1441</v>
       </c>
       <c r="D22" s="1">
-        <v>831</v>
-      </c>
-      <c r="E22" s="1">
-        <v>832</v>
-      </c>
-      <c r="F22" s="1">
-        <v>843.38826948140331</v>
-      </c>
-      <c r="G22" s="1">
-        <v>843.38826948140331</v>
-      </c>
-      <c r="H22" s="1">
-        <v>848.38826948140331</v>
-      </c>
-      <c r="I22" s="1">
-        <v>832</v>
-      </c>
-      <c r="J22" s="1">
-        <v>757</v>
-      </c>
-      <c r="K22" s="1">
-        <v>837.8963587218243</v>
-      </c>
+        <v>1608</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="13">
-        <v>739.8</v>
+        <v>1449.2</v>
       </c>
       <c r="M22" s="14">
         <f t="shared" si="0"/>
-        <v>757</v>
-      </c>
-      <c r="N22" s="15">
+        <v>1441</v>
+      </c>
+      <c r="N22" s="49">
         <f t="shared" si="1"/>
-        <v>2.3249526899161998E-2</v>
+        <v>-5.6582942313000584E-3</v>
       </c>
       <c r="O22" s="16">
         <f t="shared" si="2"/>
-        <v>825.14601722681982</v>
+        <v>1500.6666666666667</v>
       </c>
       <c r="P22" s="17">
         <f t="shared" si="3"/>
-        <v>0.11536363507274922</v>
+        <v>3.5513846720029461E-2</v>
       </c>
       <c r="Q22">
         <v>179.4505109786987</v>
       </c>
       <c r="R22" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="S22">
-        <v>24</v>
+        <v>6.6</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U22">
         <v>10810.4</v>
@@ -12281,68 +11986,54 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
-        <v>925</v>
+        <v>1600.4342045886469</v>
       </c>
       <c r="C23" s="1">
-        <v>812.96702626232491</v>
+        <v>1598</v>
       </c>
       <c r="D23" s="1">
-        <v>789</v>
-      </c>
-      <c r="E23" s="1">
-        <v>911.09894760005807</v>
-      </c>
-      <c r="F23" s="1">
-        <v>815.91333881369087</v>
-      </c>
-      <c r="G23" s="1">
-        <v>928</v>
-      </c>
-      <c r="H23" s="1">
-        <v>812.96702626232491</v>
-      </c>
-      <c r="I23" s="1">
-        <v>787.15703386391942</v>
-      </c>
-      <c r="J23" s="1">
-        <v>923</v>
-      </c>
-      <c r="K23" s="1">
-        <v>895.25169778115162</v>
-      </c>
+        <v>1633</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="13">
-        <v>797.2</v>
+        <v>1636.22</v>
       </c>
       <c r="M23" s="14">
         <f t="shared" si="0"/>
-        <v>787.15703386391942</v>
-      </c>
-      <c r="N23" s="18">
+        <v>1598</v>
+      </c>
+      <c r="N23" s="49">
         <f t="shared" si="1"/>
-        <v>-1.2597799969995762E-2</v>
+        <v>-2.3358717042940451E-2</v>
       </c>
       <c r="O23" s="16">
         <f t="shared" si="2"/>
-        <v>860.03550705834698</v>
+        <v>1610.4780681962156</v>
       </c>
       <c r="P23" s="17">
         <f t="shared" si="3"/>
-        <v>7.8820254714434185E-2</v>
+        <v>-1.5732561516045754E-2</v>
       </c>
       <c r="Q23">
         <v>193.43627185821529</v>
       </c>
       <c r="R23" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="S23">
-        <v>22.9</v>
+        <v>1.2</v>
       </c>
       <c r="T23">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="U23">
         <v>10806.9</v>
@@ -12354,68 +12045,54 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
-        <v>888.91333881369087</v>
+        <v>1828</v>
       </c>
       <c r="C24" s="1">
-        <v>874.71586200976458</v>
+        <v>1839</v>
       </c>
       <c r="D24" s="1">
-        <v>1007.355339059327</v>
-      </c>
-      <c r="E24" s="1">
-        <v>879.3663851424144</v>
-      </c>
-      <c r="F24" s="1">
-        <v>862</v>
-      </c>
-      <c r="G24" s="1">
-        <v>850</v>
-      </c>
-      <c r="H24" s="1">
-        <v>895.95864228071423</v>
-      </c>
-      <c r="I24" s="1">
-        <v>890.95864228071423</v>
-      </c>
-      <c r="J24" s="1">
-        <v>844.27122643575171</v>
-      </c>
-      <c r="K24" s="1">
-        <v>883.33187621118702</v>
-      </c>
+        <v>1831</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="13">
-        <v>844.2</v>
+        <v>1811.74</v>
       </c>
       <c r="M24" s="14">
         <f t="shared" si="0"/>
-        <v>844.27122643575171</v>
-      </c>
-      <c r="N24" s="15">
+        <v>1828</v>
+      </c>
+      <c r="N24" s="18">
         <f t="shared" si="1"/>
-        <v>8.4371518303327119E-5</v>
+        <v>8.9747977082804322E-3</v>
       </c>
       <c r="O24" s="16">
         <f t="shared" si="2"/>
-        <v>887.68713122335646</v>
+        <v>1832.6666666666667</v>
       </c>
       <c r="P24" s="17">
         <f t="shared" si="3"/>
-        <v>5.1512830162706011E-2</v>
+        <v>1.1550590408483961E-2</v>
       </c>
       <c r="Q24">
         <v>96.467518401145938</v>
       </c>
       <c r="R24" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="S24">
-        <v>33.299999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T24">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="U24">
         <v>10800.5</v>
@@ -12427,68 +12104,54 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
-        <v>941.63410507057768</v>
+        <v>1941.057096285916</v>
       </c>
       <c r="C25" s="1">
-        <v>969.95864228071423</v>
+        <v>1962</v>
       </c>
       <c r="D25" s="1">
-        <v>925.39332806648645</v>
-      </c>
-      <c r="E25" s="1">
-        <v>911.65913082050179</v>
-      </c>
-      <c r="F25" s="1">
-        <v>962.66293558253074</v>
-      </c>
-      <c r="G25" s="1">
-        <v>953.91333881369087</v>
-      </c>
-      <c r="H25" s="1">
-        <v>993.05709628591626</v>
-      </c>
-      <c r="I25" s="1">
-        <v>952.0863230078196</v>
-      </c>
-      <c r="J25" s="1">
-        <v>971.38712496229414</v>
-      </c>
-      <c r="K25" s="1">
-        <v>940.98638542981644</v>
-      </c>
+        <v>1944.057096285916</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="13">
-        <v>917.1</v>
+        <v>1825.7</v>
       </c>
       <c r="M25" s="14">
         <f t="shared" si="0"/>
-        <v>911.65913082050179</v>
-      </c>
-      <c r="N25" s="15">
+        <v>1941.057096285916</v>
+      </c>
+      <c r="N25" s="18">
         <f t="shared" si="1"/>
-        <v>-5.9326891064204945E-3</v>
+        <v>6.3185132434636568E-2</v>
       </c>
       <c r="O25" s="16">
         <f t="shared" si="2"/>
-        <v>952.27384103203474</v>
+        <v>1949.0380641906106</v>
       </c>
       <c r="P25" s="17">
         <f t="shared" si="3"/>
-        <v>3.8353332277870147E-2</v>
+        <v>6.7556588810106025E-2</v>
       </c>
       <c r="Q25">
         <v>131.8730091094971</v>
       </c>
       <c r="R25" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="S25">
-        <v>25.3</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="U25">
         <v>10803.9</v>
@@ -12500,7 +12163,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>124.5286426544189</v>
+        <v>41671.736393451691</v>
       </c>
     </row>
   </sheetData>
@@ -12517,7 +12180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
@@ -12544,15 +12207,15 @@
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>333</v>
@@ -12607,7 +12270,7 @@
         <v>231.1877645969391</v>
       </c>
       <c r="R2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="S2">
         <v>25</v>
@@ -12619,13 +12282,13 @@
         <v>5262.2</v>
       </c>
       <c r="V2" s="21">
-        <f>(Q2-U2)/U2</f>
+        <f t="shared" ref="V2:V25" si="4">(Q2-U2)/U2</f>
         <v>-0.9560663287984229</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>352.09975124224178</v>
@@ -12680,7 +12343,7 @@
         <v>267.93330111503599</v>
       </c>
       <c r="R3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="S3">
         <v>29.6</v>
@@ -12692,13 +12355,13 @@
         <v>10803.6</v>
       </c>
       <c r="V3" s="21">
-        <f t="shared" ref="V3:V25" si="4">(Q3-U3)/U3</f>
+        <f t="shared" si="4"/>
         <v>-0.97519962779860092</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>396.09975124224178</v>
@@ -12753,7 +12416,7 @@
         <v>277.62601487636567</v>
       </c>
       <c r="R4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="S4">
         <v>25.5</v>
@@ -12771,7 +12434,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>440</v>
@@ -12826,7 +12489,7 @@
         <v>273.40894491672509</v>
       </c>
       <c r="R5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="S5">
         <v>25</v>
@@ -12844,7 +12507,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>486.37626217711801</v>
@@ -12899,7 +12562,7 @@
         <v>282.05786888599403</v>
       </c>
       <c r="R6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="S6">
         <v>20.7</v>
@@ -12917,7 +12580,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>534.09975124224184</v>
@@ -12972,7 +12635,7 @@
         <v>285.82345752716071</v>
       </c>
       <c r="R7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="S7">
         <v>21</v>
@@ -12990,7 +12653,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>467.87798885057452</v>
@@ -13045,7 +12708,7 @@
         <v>286.86472146511079</v>
       </c>
       <c r="R8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="S8">
         <v>34.299999999999997</v>
@@ -13063,7 +12726,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>491.90724809414741</v>
@@ -13118,7 +12781,7 @@
         <v>255.93503324985511</v>
       </c>
       <c r="R9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="S9">
         <v>23.4</v>
@@ -13136,7 +12799,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>524.6344384904387</v>
@@ -13191,7 +12854,7 @@
         <v>250.67371914386749</v>
       </c>
       <c r="R10" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="S10">
         <v>30.5</v>
@@ -13209,7 +12872,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>567.8929594632192</v>
@@ -13264,7 +12927,7 @@
         <v>236.3658572912216</v>
       </c>
       <c r="R11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="S11">
         <v>23.1</v>
@@ -13282,7 +12945,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>633.3238075793812</v>
@@ -13337,7 +13000,7 @@
         <v>150.02608928680419</v>
       </c>
       <c r="R12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="S12">
         <v>25</v>
@@ -13355,7 +13018,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>720.3238075793812</v>
@@ -13410,7 +13073,7 @@
         <v>144.77285296916961</v>
       </c>
       <c r="R13" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="S13">
         <v>24.1</v>
@@ -13428,7 +13091,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>709.41381265149107</v>
@@ -13483,7 +13146,7 @@
         <v>158.42361953258509</v>
       </c>
       <c r="R14" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="S14">
         <v>20.399999999999999</v>
@@ -13501,7 +13164,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>733</v>
@@ -13556,7 +13219,7 @@
         <v>263.16004741191858</v>
       </c>
       <c r="R15" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="S15">
         <v>27.8</v>
@@ -13574,7 +13237,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>800.44505502581956</v>
@@ -13629,7 +13292,7 @@
         <v>247.45405967235561</v>
       </c>
       <c r="R16" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="S16">
         <v>27.4</v>
@@ -13647,7 +13310,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>810.42943383865531</v>
@@ -13702,7 +13365,7 @@
         <v>306.5092656135559</v>
       </c>
       <c r="R17" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="S17">
         <v>20.8</v>
@@ -13720,7 +13383,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>942</v>
@@ -13775,7 +13438,7 @@
         <v>290.75018148422242</v>
       </c>
       <c r="R18" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="S18">
         <v>26.8</v>
@@ -13793,7 +13456,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>960.41381265149107</v>
@@ -13848,7 +13511,7 @@
         <v>228.06655547618871</v>
       </c>
       <c r="R19" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="S19">
         <v>23.8</v>
@@ -13866,7 +13529,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>659.15703386391942</v>
@@ -13921,7 +13584,7 @@
         <v>210.43271470069891</v>
       </c>
       <c r="R20" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="S20">
         <v>22.6</v>
@@ -13939,7 +13602,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>608.10749521219213</v>
@@ -13994,7 +13657,7 @@
         <v>236.11854579448701</v>
       </c>
       <c r="R21" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="S21">
         <v>17.3</v>
@@ -14012,7 +13675,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>696.89188135719007</v>
@@ -14067,7 +13730,7 @@
         <v>161.33662295341489</v>
       </c>
       <c r="R22" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="S22">
         <v>23.9</v>
@@ -14085,7 +13748,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>575.7865728658644</v>
@@ -14140,7 +13803,7 @@
         <v>100.69255130290981</v>
       </c>
       <c r="R23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="S23">
         <v>22.8</v>
@@ -14158,7 +13821,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>587.54101966249686</v>
@@ -14213,7 +13876,7 @@
         <v>71.853709602355963</v>
       </c>
       <c r="R24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="S24">
         <v>21.9</v>
@@ -14231,7 +13894,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>621.3016516106934</v>
@@ -14286,7 +13949,7 @@
         <v>57.40239853858948</v>
       </c>
       <c r="R25" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="S25">
         <v>18.2</v>
@@ -14348,15 +14011,15 @@
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>226</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>227</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>307</v>
@@ -14411,7 +14074,7 @@
         <v>265.76338500976561</v>
       </c>
       <c r="R2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="S2">
         <v>24.1</v>
@@ -14423,13 +14086,13 @@
         <v>907.3</v>
       </c>
       <c r="V2" s="21">
-        <f>(Q2-U2)/U2</f>
+        <f t="shared" ref="V2:V25" si="4">(Q2-U2)/U2</f>
         <v>-0.70708323045325061</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>351</v>
@@ -14484,7 +14147,7 @@
         <v>312.54035265445708</v>
       </c>
       <c r="R3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="S3">
         <v>20.399999999999999</v>
@@ -14496,13 +14159,13 @@
         <v>7895.2</v>
       </c>
       <c r="V3" s="21">
-        <f t="shared" ref="V3:V25" si="4">(Q3-U3)/U3</f>
+        <f t="shared" si="4"/>
         <v>-0.96041387771627607</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>389</v>
@@ -14557,7 +14220,7 @@
         <v>345.87194061279303</v>
       </c>
       <c r="R4" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="S4">
         <v>11.4</v>
@@ -14575,7 +14238,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>413.11077027627482</v>
@@ -14630,7 +14293,7 @@
         <v>311.98446798324579</v>
       </c>
       <c r="R5" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="S5">
         <v>28.8</v>
@@ -14648,7 +14311,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>484.36524314308491</v>
@@ -14703,7 +14366,7 @@
         <v>326.69025347232821</v>
       </c>
       <c r="R6" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="S6">
         <v>22.1</v>
@@ -14721,7 +14384,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>486.88470913081829</v>
@@ -14776,7 +14439,7 @@
         <v>320.50650720596309</v>
       </c>
       <c r="R7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="S7">
         <v>29.9</v>
@@ -14794,7 +14457,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>467.13274595042162</v>
@@ -14849,7 +14512,7 @@
         <v>283.93193454742431</v>
       </c>
       <c r="R8" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="S8">
         <v>27.6</v>
@@ -14867,7 +14530,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>481.90724809414741</v>
@@ -14922,7 +14585,7 @@
         <v>318.91809394359592</v>
       </c>
       <c r="R9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="S9">
         <v>17.7</v>
@@ -14940,7 +14603,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>550.90724809414746</v>
@@ -14995,7 +14658,7 @@
         <v>208.9017087459564</v>
       </c>
       <c r="R10" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="S10">
         <v>15.5</v>
@@ -15013,7 +14676,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>556.90724809414746</v>
@@ -15068,7 +14731,7 @@
         <v>181.2573094129562</v>
       </c>
       <c r="R11" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="S11">
         <v>17.8</v>
@@ -15086,7 +14749,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>641.90724809414746</v>
@@ -15141,7 +14804,7 @@
         <v>181.63471438884741</v>
       </c>
       <c r="R12" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="S12">
         <v>25.1</v>
@@ -15159,7 +14822,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>720.3238075793812</v>
@@ -15214,7 +14877,7 @@
         <v>273.39204273223879</v>
       </c>
       <c r="R13" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="S13">
         <v>21.7</v>
@@ -15232,7 +14895,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>715</v>
@@ -15287,7 +14950,7 @@
         <v>270.24445710182192</v>
       </c>
       <c r="R14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="S14">
         <v>35.799999999999997</v>
@@ -15305,7 +14968,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>735</v>
@@ -15360,7 +15023,7 @@
         <v>331.96040096282962</v>
       </c>
       <c r="R15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="S15">
         <v>23.6</v>
@@ -15378,7 +15041,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>796.11746551381998</v>
@@ -15433,7 +15096,7 @@
         <v>339.88006982803353</v>
       </c>
       <c r="R16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="S16">
         <v>28.4</v>
@@ -15451,7 +15114,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>810.42943383865531</v>
@@ -15506,7 +15169,7 @@
         <v>296.17287187576301</v>
       </c>
       <c r="R17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S17">
         <v>24.7</v>
@@ -15524,7 +15187,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>975.24880949681335</v>
@@ -15579,7 +15242,7 @@
         <v>355.92423872947688</v>
       </c>
       <c r="R18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="S18">
         <v>29.7</v>
@@ -15597,7 +15260,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>977</v>
@@ -15652,7 +15315,7 @@
         <v>272.09240014553069</v>
       </c>
       <c r="R19" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="S19">
         <v>29.4</v>
@@ -15670,7 +15333,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
         <v>567.10749521219213</v>
@@ -15725,7 +15388,7 @@
         <v>160.9865004301071</v>
       </c>
       <c r="R20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="S20">
         <v>21.7</v>
@@ -15743,7 +15406,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B21" s="1">
         <v>602.3016516106934</v>
@@ -15798,7 +15461,7 @@
         <v>145.7211891412735</v>
       </c>
       <c r="R21" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="S21">
         <v>24.2</v>
@@ -15816,7 +15479,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>681.3016516106934</v>
@@ -15871,7 +15534,7 @@
         <v>184.80291962623599</v>
       </c>
       <c r="R22" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="S22">
         <v>24</v>
@@ -15889,7 +15552,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>740.3016516106934</v>
@@ -15944,7 +15607,7 @@
         <v>192.33122379779809</v>
       </c>
       <c r="R23" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="S23">
         <v>22.2</v>
@@ -15962,7 +15625,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1">
         <v>791.54101966249686</v>
@@ -16017,7 +15680,7 @@
         <v>133.2768466949463</v>
       </c>
       <c r="R24" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="S24">
         <v>23.4</v>
@@ -16035,7 +15698,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1">
         <v>897.3016516106934</v>
@@ -16090,7 +15753,7 @@
         <v>120.7714811325073</v>
       </c>
       <c r="R25" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="S25">
         <v>19.3</v>
@@ -16122,7 +15785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D68F51C-C12B-41DA-A067-4CB21BC1FB97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AP35"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
@@ -16149,54 +15812,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="G1" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
-      <c r="L1" s="46" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48"/>
-      <c r="Q1" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="48"/>
-      <c r="V1" s="46" t="s">
-        <v>221</v>
-      </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="48"/>
-      <c r="AA1" s="46" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48"/>
-      <c r="AF1" s="46" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
-      <c r="AK1" s="44" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
+      <c r="B1" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="G1" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="L1" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+      <c r="Q1" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+      <c r="V1" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="46"/>
+      <c r="AA1" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46"/>
+      <c r="AF1" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="46"/>
+      <c r="AK1" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
@@ -16206,7 +15869,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>235</v>
@@ -16218,7 +15881,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>235</v>
@@ -16230,7 +15893,7 @@
         <v>2</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>235</v>
@@ -16242,7 +15905,7 @@
         <v>2</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="T2" s="28" t="s">
         <v>235</v>
@@ -16254,7 +15917,7 @@
         <v>2</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>235</v>
@@ -16266,7 +15929,7 @@
         <v>2</v>
       </c>
       <c r="AC2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AD2" s="28" t="s">
         <v>235</v>
@@ -16278,7 +15941,7 @@
         <v>2</v>
       </c>
       <c r="AH2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AI2" s="28" t="s">
         <v>235</v>
@@ -16290,7 +15953,7 @@
         <v>2</v>
       </c>
       <c r="AM2" s="34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>235</v>
@@ -16298,7 +15961,7 @@
     </row>
     <row r="3" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="29">
         <f>'10'!P2</f>
@@ -16370,7 +16033,7 @@
       <c r="U3" s="23"/>
       <c r="V3" s="29">
         <f>'30'!P2</f>
-        <v>6.3095358021705026E-3</v>
+        <v>5.7785586966131501E-2</v>
       </c>
       <c r="W3" s="30">
         <f>'30'!N2</f>
@@ -16387,11 +16050,11 @@
       <c r="Z3" s="23"/>
       <c r="AA3" s="29">
         <f>'50'!P2</f>
-        <v>1.9461077844311378E-2</v>
+        <v>3.1251509443075795E-2</v>
       </c>
       <c r="AB3" s="30">
         <f>'50'!N2</f>
-        <v>0</v>
+        <v>-3.2024344297927866E-2</v>
       </c>
       <c r="AC3" s="35">
         <f>'50'!Q2</f>
@@ -16438,7 +16101,7 @@
     </row>
     <row r="4" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="29">
         <f>'10'!P3</f>
@@ -16510,7 +16173,7 @@
       <c r="U4" s="23"/>
       <c r="V4" s="29">
         <f>'30'!P3</f>
-        <v>1.282079336092419E-2</v>
+        <v>0.10485485819455169</v>
       </c>
       <c r="W4" s="30">
         <f>'30'!N3</f>
@@ -16527,11 +16190,11 @@
       <c r="Z4" s="23"/>
       <c r="AA4" s="29">
         <f>'50'!P3</f>
-        <v>3.889446358244833E-2</v>
+        <v>3.9765506497765933E-3</v>
       </c>
       <c r="AB4" s="30">
         <f>'50'!N3</f>
-        <v>1.7770597738287625E-2</v>
+        <v>-2.840978969376463E-2</v>
       </c>
       <c r="AC4" s="35">
         <f>'50'!Q3</f>
@@ -16578,7 +16241,7 @@
     </row>
     <row r="5" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="29">
         <f>'10'!P4</f>
@@ -16650,7 +16313,7 @@
       <c r="U5" s="23"/>
       <c r="V5" s="29">
         <f>'30'!P4</f>
-        <v>4.5699506944460611E-3</v>
+        <v>0.11671116231794648</v>
       </c>
       <c r="W5" s="30">
         <f>'30'!N4</f>
@@ -16667,11 +16330,11 @@
       <c r="Z5" s="23"/>
       <c r="AA5" s="29">
         <f>'50'!P4</f>
-        <v>3.7450150327379562E-2</v>
+        <v>-4.9051431869004724E-3</v>
       </c>
       <c r="AB5" s="30">
         <f>'50'!N4</f>
-        <v>1.0738152062471506E-2</v>
+        <v>-2.0774724085695785E-2</v>
       </c>
       <c r="AC5" s="35">
         <f>'50'!Q4</f>
@@ -16718,7 +16381,7 @@
     </row>
     <row r="6" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="29">
         <f>'10'!P5</f>
@@ -16790,7 +16453,7 @@
       <c r="U6" s="23"/>
       <c r="V6" s="29">
         <f>'30'!P5</f>
-        <v>1.9371261251704733E-3</v>
+        <v>0.12732978270234357</v>
       </c>
       <c r="W6" s="30">
         <f>'30'!N5</f>
@@ -16807,11 +16470,11 @@
       <c r="Z6" s="23"/>
       <c r="AA6" s="29">
         <f>'50'!P5</f>
-        <v>4.634103158761161E-2</v>
+        <v>-0.10976599563313784</v>
       </c>
       <c r="AB6" s="30">
         <f>'50'!N5</f>
-        <v>6.7680114939111793E-3</v>
+        <v>-0.122054940155698</v>
       </c>
       <c r="AC6" s="35">
         <f>'50'!Q5</f>
@@ -16858,7 +16521,7 @@
     </row>
     <row r="7" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="29">
         <f>'10'!P6</f>
@@ -16930,11 +16593,11 @@
       <c r="U7" s="23"/>
       <c r="V7" s="29">
         <f>'30'!P6</f>
-        <v>1.9323676250463832E-2</v>
+        <v>0.12708885575412485</v>
       </c>
       <c r="W7" s="30">
         <f>'30'!N6</f>
-        <v>1.2582583035011178E-4</v>
+        <v>8.4891428186800733E-3</v>
       </c>
       <c r="X7" s="35">
         <f>'30'!Q6</f>
@@ -16947,11 +16610,11 @@
       <c r="Z7" s="23"/>
       <c r="AA7" s="29">
         <f>'50'!P6</f>
-        <v>4.2778281184427384E-2</v>
+        <v>-4.3657867187278813E-2</v>
       </c>
       <c r="AB7" s="30">
         <f>'50'!N6</f>
-        <v>1.8354778503504514E-3</v>
+        <v>-5.0165520753755972E-2</v>
       </c>
       <c r="AC7" s="35">
         <f>'50'!Q6</f>
@@ -16998,7 +16661,7 @@
     </row>
     <row r="8" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="29">
         <f>'10'!P7</f>
@@ -17070,7 +16733,7 @@
       <c r="U8" s="23"/>
       <c r="V8" s="29">
         <f>'30'!P7</f>
-        <v>9.4243106201183716E-3</v>
+        <v>0.14031939536728535</v>
       </c>
       <c r="W8" s="30">
         <f>'30'!N7</f>
@@ -17087,11 +16750,11 @@
       <c r="Z8" s="23"/>
       <c r="AA8" s="29">
         <f>'50'!P7</f>
-        <v>5.2332769621658219E-2</v>
+        <v>1.3874066168623342E-2</v>
       </c>
       <c r="AB8" s="30">
         <f>'50'!N7</f>
-        <v>7.3911456449229028E-4</v>
+        <v>-9.0304572695173557E-4</v>
       </c>
       <c r="AC8" s="35">
         <f>'50'!Q7</f>
@@ -17142,7 +16805,7 @@
         <v>1.053316351168467E-2</v>
       </c>
       <c r="C9" s="31">
-        <f t="shared" ref="C9" si="0">AVERAGE(C3:C8)</f>
+        <f>AVERAGE(C3:C8)</f>
         <v>-5.9395301944002614E-5</v>
       </c>
       <c r="F9" s="23"/>
@@ -17151,7 +16814,7 @@
         <v>5.784783391895483E-3</v>
       </c>
       <c r="H9" s="31">
-        <f t="shared" ref="H9" si="1">AVERAGE(H3:H8)</f>
+        <f>AVERAGE(H3:H8)</f>
         <v>1.3448640627222728E-3</v>
       </c>
       <c r="K9" s="22"/>
@@ -17160,7 +16823,7 @@
         <v>2.1230860080506019E-2</v>
       </c>
       <c r="M9" s="31">
-        <f t="shared" ref="M9" si="2">AVERAGE(M3:M8)</f>
+        <f>AVERAGE(M3:M8)</f>
         <v>5.6397524519841745E-3</v>
       </c>
       <c r="P9" s="23"/>
@@ -17169,27 +16832,27 @@
         <v>7.9879675011531922E-3</v>
       </c>
       <c r="R9" s="31">
-        <f t="shared" ref="R9" si="3">AVERAGE(R3:R8)</f>
+        <f>AVERAGE(R3:R8)</f>
         <v>1.5292945206962069E-3</v>
       </c>
       <c r="U9" s="23"/>
       <c r="V9" s="31">
         <f>AVERAGE(V3:V8)</f>
-        <v>9.0642321422155711E-3</v>
+        <v>0.11234827355039723</v>
       </c>
       <c r="W9" s="31">
-        <f t="shared" ref="W9" si="4">AVERAGE(W3:W8)</f>
-        <v>2.3073354008443586E-4</v>
+        <f>AVERAGE(W3:W8)</f>
+        <v>1.6246197048060962E-3</v>
       </c>
       <c r="Y9" s="42"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="31">
         <f>AVERAGE(AA3:AA8)</f>
-        <v>3.954296235797275E-2</v>
+        <v>-1.8204479957640234E-2</v>
       </c>
       <c r="AB9" s="31">
-        <f t="shared" ref="AB9" si="5">AVERAGE(AB3:AB8)</f>
-        <v>6.3085589515855097E-3</v>
+        <f>AVERAGE(AB3:AB8)</f>
+        <v>-4.2388727452298991E-2</v>
       </c>
       <c r="AE9" s="23"/>
       <c r="AF9" s="31">
@@ -17197,7 +16860,7 @@
         <v>4.4970486437500408E-2</v>
       </c>
       <c r="AG9" s="31">
-        <f t="shared" ref="AG9" si="6">AVERAGE(AG3:AG8)</f>
+        <f>AVERAGE(AG3:AG8)</f>
         <v>5.594393794040118E-3</v>
       </c>
       <c r="AJ9" s="23"/>
@@ -17206,7 +16869,7 @@
         <v>3.1307117227815706E-2</v>
       </c>
       <c r="AL9" s="31">
-        <f t="shared" ref="AL9" si="7">AVERAGE(AL3:AL8)</f>
+        <f>AVERAGE(AL3:AL8)</f>
         <v>2.199624702769366E-3</v>
       </c>
       <c r="AN9" s="37"/>
@@ -17241,7 +16904,7 @@
     </row>
     <row r="11" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="29">
         <f>'10'!P8</f>
@@ -17313,11 +16976,11 @@
       <c r="U11" s="23"/>
       <c r="V11" s="29">
         <f>'30'!P8</f>
-        <v>1.1786267661451248E-2</v>
+        <v>-1.7079249971372685E-2</v>
       </c>
       <c r="W11" s="30">
         <f>'30'!N8</f>
-        <v>0</v>
+        <v>-0.1050228310502283</v>
       </c>
       <c r="X11" s="35">
         <f>'30'!Q8</f>
@@ -17330,11 +16993,11 @@
       <c r="Z11" s="23"/>
       <c r="AA11" s="29">
         <f>'50'!P8</f>
-        <v>5.7554812481149402E-2</v>
+        <v>0.132764923545622</v>
       </c>
       <c r="AB11" s="30">
         <f>'50'!N8</f>
-        <v>4.968681045441516E-3</v>
+        <v>8.3245853411407153E-2</v>
       </c>
       <c r="AC11" s="35">
         <f>'50'!Q8</f>
@@ -17381,7 +17044,7 @@
     </row>
     <row r="12" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="29">
         <f>'10'!P9</f>
@@ -17453,11 +17116,11 @@
       <c r="U12" s="23"/>
       <c r="V12" s="29">
         <f>'30'!P9</f>
-        <v>3.3989722765411239E-3</v>
+        <v>9.2097583857512124E-3</v>
       </c>
       <c r="W12" s="30">
         <f>'30'!N9</f>
-        <v>1.576015252756734E-5</v>
+        <v>-2.1237777885580247E-2</v>
       </c>
       <c r="X12" s="35">
         <f>'30'!Q9</f>
@@ -17470,11 +17133,11 @@
       <c r="Z12" s="23"/>
       <c r="AA12" s="29">
         <f>'50'!P9</f>
-        <v>7.687430209137984E-2</v>
+        <v>0.11368926013626258</v>
       </c>
       <c r="AB12" s="30">
         <f>'50'!N9</f>
-        <v>2.2548910424177591E-2</v>
+        <v>0.10150005472208412</v>
       </c>
       <c r="AC12" s="35">
         <f>'50'!Q9</f>
@@ -17522,7 +17185,7 @@
     </row>
     <row r="13" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="29">
         <f>'10'!P10</f>
@@ -17594,7 +17257,7 @@
       <c r="U13" s="23"/>
       <c r="V13" s="29">
         <f>'30'!P10</f>
-        <v>9.278271928825535E-3</v>
+        <v>4.4550948355173564E-2</v>
       </c>
       <c r="W13" s="30">
         <f>'30'!N10</f>
@@ -17611,11 +17274,11 @@
       <c r="Z13" s="23"/>
       <c r="AA13" s="29">
         <f>'50'!P10</f>
-        <v>6.4097506148674863E-2</v>
+        <v>0.16280435868064733</v>
       </c>
       <c r="AB13" s="30">
         <f>'50'!N10</f>
-        <v>5.3524021818739922E-4</v>
+        <v>0.14547537227949589</v>
       </c>
       <c r="AC13" s="35">
         <f>'50'!Q10</f>
@@ -17662,7 +17325,7 @@
     </row>
     <row r="14" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="29">
         <f>'10'!P11</f>
@@ -17734,7 +17397,7 @@
       <c r="U14" s="23"/>
       <c r="V14" s="29">
         <f>'30'!P11</f>
-        <v>9.978279305968521E-3</v>
+        <v>4.8884049309215111E-2</v>
       </c>
       <c r="W14" s="30">
         <f>'30'!N11</f>
@@ -17751,11 +17414,11 @@
       <c r="Z14" s="23"/>
       <c r="AA14" s="29">
         <f>'50'!P11</f>
-        <v>6.4212677067485069E-2</v>
+        <v>0.22872808886616108</v>
       </c>
       <c r="AB14" s="30">
         <f>'50'!N11</f>
-        <v>1.2890857229912574E-2</v>
+        <v>0.21452313986192795</v>
       </c>
       <c r="AC14" s="35">
         <f>'50'!Q11</f>
@@ -17802,7 +17465,7 @@
     </row>
     <row r="15" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="29">
         <f>'10'!P12</f>
@@ -17874,7 +17537,7 @@
       <c r="U15" s="23"/>
       <c r="V15" s="29">
         <f>'30'!P12</f>
-        <v>4.0647452278741109E-3</v>
+        <v>4.7738251430457977E-2</v>
       </c>
       <c r="W15" s="30">
         <f>'30'!N12</f>
@@ -17891,11 +17554,11 @@
       <c r="Z15" s="23"/>
       <c r="AA15" s="29">
         <f>'50'!P12</f>
-        <v>3.6486993155064762E-2</v>
+        <v>0.16181745542015283</v>
       </c>
       <c r="AB15" s="30">
         <f>'50'!N12</f>
-        <v>2.4719020608267243E-2</v>
+        <v>0.1545119742263652</v>
       </c>
       <c r="AC15" s="35">
         <f>'50'!Q12</f>
@@ -17942,7 +17605,7 @@
     </row>
     <row r="16" spans="1:42" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="29">
         <f>'10'!P13</f>
@@ -18014,7 +17677,7 @@
       <c r="U16" s="23"/>
       <c r="V16" s="29">
         <f>'30'!P13</f>
-        <v>1.4302333554987605E-2</v>
+        <v>5.193676197823343E-2</v>
       </c>
       <c r="W16" s="30">
         <f>'30'!N13</f>
@@ -18031,11 +17694,11 @@
       <c r="Z16" s="23"/>
       <c r="AA16" s="29">
         <f>'50'!P13</f>
-        <v>1.691405255765733E-3</v>
+        <v>8.2812166143988702E-2</v>
       </c>
       <c r="AB16" s="30">
         <f>'50'!N13</f>
-        <v>-1.8346199285012597E-2</v>
+        <v>7.6980707997752362E-2</v>
       </c>
       <c r="AC16" s="35">
         <f>'50'!Q13</f>
@@ -18086,7 +17749,7 @@
         <v>1.3404882973333252E-2</v>
       </c>
       <c r="C17" s="31">
-        <f t="shared" ref="C17" si="8">AVERAGE(C11:C16)</f>
+        <f>AVERAGE(C11:C16)</f>
         <v>6.6634567922582702E-3</v>
       </c>
       <c r="F17" s="23"/>
@@ -18095,7 +17758,7 @@
         <v>7.52854212313579E-4</v>
       </c>
       <c r="H17" s="31">
-        <f t="shared" ref="H17" si="9">AVERAGE(H11:H16)</f>
+        <f>AVERAGE(H11:H16)</f>
         <v>4.3667708791697624E-5</v>
       </c>
       <c r="K17" s="22"/>
@@ -18104,7 +17767,7 @@
         <v>2.3722971523924552E-2</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" ref="M17" si="10">AVERAGE(M11:M16)</f>
+        <f>AVERAGE(M11:M16)</f>
         <v>9.218150201747587E-3</v>
       </c>
       <c r="P17" s="23"/>
@@ -18113,26 +17776,26 @@
         <v>4.3371432499496815E-3</v>
       </c>
       <c r="R17" s="31">
-        <f t="shared" ref="R17" si="11">AVERAGE(R11:R16)</f>
+        <f>AVERAGE(R11:R16)</f>
         <v>7.5106706800451587E-4</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="31">
         <f>AVERAGE(V11:V16)</f>
-        <v>8.801478325941357E-3</v>
+        <v>3.0873419914576438E-2</v>
       </c>
       <c r="W17" s="31">
-        <f t="shared" ref="W17" si="12">AVERAGE(W11:W16)</f>
-        <v>3.116128789395572E-3</v>
+        <f>AVERAGE(W11:W16)</f>
+        <v>-1.792993272532711E-2</v>
       </c>
       <c r="Z17" s="23"/>
       <c r="AA17" s="31">
         <f>AVERAGE(AA11:AA16)</f>
-        <v>5.0152949366586604E-2</v>
+        <v>0.14710270879880574</v>
       </c>
       <c r="AB17" s="31">
-        <f t="shared" ref="AB17" si="13">AVERAGE(AB11:AB16)</f>
-        <v>7.8860850401622877E-3</v>
+        <f>AVERAGE(AB11:AB16)</f>
+        <v>0.12937285041650545</v>
       </c>
       <c r="AE17" s="23"/>
       <c r="AF17" s="31">
@@ -18140,7 +17803,7 @@
         <v>3.0269722850383905E-2</v>
       </c>
       <c r="AG17" s="31">
-        <f t="shared" ref="AG17" si="14">AVERAGE(AG11:AG16)</f>
+        <f>AVERAGE(AG11:AG16)</f>
         <v>4.2488273309353687E-3</v>
       </c>
       <c r="AJ17" s="23"/>
@@ -18149,7 +17812,7 @@
         <v>2.7790068515853607E-2</v>
       </c>
       <c r="AL17" s="31">
-        <f t="shared" ref="AL17" si="15">AVERAGE(AL11:AL16)</f>
+        <f>AVERAGE(AL11:AL16)</f>
         <v>4.8081355998980555E-3</v>
       </c>
       <c r="AN17" s="37"/>
@@ -18182,7 +17845,7 @@
     </row>
     <row r="19" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="29">
         <f>'10'!P14</f>
@@ -18254,11 +17917,11 @@
       <c r="U19" s="23"/>
       <c r="V19" s="29">
         <f>'30'!P14</f>
-        <v>2.230918098959947E-2</v>
+        <v>5.5426144315743235E-3</v>
       </c>
       <c r="W19" s="30">
         <f>'30'!N14</f>
-        <v>6.7340067340067337E-3</v>
+        <v>-8.0808080808080815E-2</v>
       </c>
       <c r="X19" s="35">
         <f>'30'!Q14</f>
@@ -18271,11 +17934,11 @@
       <c r="Z19" s="23"/>
       <c r="AA19" s="29">
         <f>'50'!P14</f>
-        <v>3.3324893744995039E-2</v>
+        <v>0.13916363044643271</v>
       </c>
       <c r="AB19" s="30">
         <f>'50'!N14</f>
-        <v>1.0171380799777002E-2</v>
+        <v>0.1212820864563902</v>
       </c>
       <c r="AC19" s="35">
         <f>'50'!Q14</f>
@@ -18322,7 +17985,7 @@
     </row>
     <row r="20" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" s="29">
         <f>'10'!P15</f>
@@ -18394,7 +18057,7 @@
       <c r="U20" s="23"/>
       <c r="V20" s="29">
         <f>'30'!P15</f>
-        <v>2.3941206217144448E-2</v>
+        <v>2.9387354990557498E-2</v>
       </c>
       <c r="W20" s="30">
         <f>'30'!N15</f>
@@ -18411,11 +18074,11 @@
       <c r="Z20" s="23"/>
       <c r="AA20" s="29">
         <f>'50'!P15</f>
-        <v>3.278379693855215E-2</v>
+        <v>0.14114114114114118</v>
       </c>
       <c r="AB20" s="30">
         <f>'50'!N15</f>
-        <v>1.5222138469359931E-2</v>
+        <v>0.13374913374913375</v>
       </c>
       <c r="AC20" s="35">
         <f>'50'!Q15</f>
@@ -18462,7 +18125,7 @@
     </row>
     <row r="21" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="29">
         <f>'10'!P16</f>
@@ -18551,11 +18214,11 @@
       <c r="Z21" s="23"/>
       <c r="AA21" s="29">
         <f>'50'!P16</f>
-        <v>6.0547278243874514E-2</v>
+        <v>0.12737895537885807</v>
       </c>
       <c r="AB21" s="30">
         <f>'50'!N16</f>
-        <v>2.7212390143110329E-2</v>
+        <v>0.11443013545368794</v>
       </c>
       <c r="AC21" s="35">
         <f>'50'!Q16</f>
@@ -18602,7 +18265,7 @@
     </row>
     <row r="22" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="29">
         <f>'10'!P17</f>
@@ -18691,11 +18354,11 @@
       <c r="Z22" s="23"/>
       <c r="AA22" s="29">
         <f>'50'!P17</f>
-        <v>1.7792864753737318E-2</v>
+        <v>8.5211757873511609E-2</v>
       </c>
       <c r="AB22" s="30">
         <f>'50'!N17</f>
-        <v>-3.8701778319056773E-2</v>
+        <v>7.5652804380525671E-2</v>
       </c>
       <c r="AC22" s="35">
         <f>'50'!Q17</f>
@@ -18742,7 +18405,7 @@
     </row>
     <row r="23" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="29">
         <f>'10'!P18</f>
@@ -18831,11 +18494,11 @@
       <c r="Z23" s="23"/>
       <c r="AA23" s="29">
         <f>'50'!P18</f>
-        <v>4.0393427738922086E-2</v>
+        <v>9.7791235924191797E-2</v>
       </c>
       <c r="AB23" s="30">
         <f>'50'!N18</f>
-        <v>5.5684280891726938E-3</v>
+        <v>7.1162230214686983E-2</v>
       </c>
       <c r="AC23" s="35">
         <f>'50'!Q18</f>
@@ -18882,7 +18545,7 @@
     </row>
     <row r="24" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="29">
         <f>'10'!P19</f>
@@ -18971,11 +18634,11 @@
       <c r="Z24" s="23"/>
       <c r="AA24" s="29">
         <f>'50'!P19</f>
-        <v>1.2832690218195539E-2</v>
+        <v>8.0917062828500919E-2</v>
       </c>
       <c r="AB24" s="30">
         <f>'50'!N19</f>
-        <v>-1.2163778514825356E-2</v>
+        <v>7.7278174796928362E-2</v>
       </c>
       <c r="AC24" s="35">
         <f>'50'!Q19</f>
@@ -19026,7 +18689,7 @@
         <v>1.6388195201235362E-3</v>
       </c>
       <c r="C25" s="31">
-        <f t="shared" ref="C25" si="16">AVERAGE(C19:C24)</f>
+        <f>AVERAGE(C19:C24)</f>
         <v>-5.4989460118666148E-6</v>
       </c>
       <c r="F25" s="23"/>
@@ -19035,7 +18698,7 @@
         <v>-5.4989460118311317E-6</v>
       </c>
       <c r="H25" s="31">
-        <f t="shared" ref="H25" si="17">AVERAGE(H19:H24)</f>
+        <f>AVERAGE(H19:H24)</f>
         <v>-5.4989460118666148E-6</v>
       </c>
       <c r="K25" s="22"/>
@@ -19044,7 +18707,7 @@
         <v>1.9530316966764324E-2</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" ref="M25" si="18">AVERAGE(M19:M24)</f>
+        <f>AVERAGE(M19:M24)</f>
         <v>4.0726219289807016E-3</v>
       </c>
       <c r="P25" s="23"/>
@@ -19053,26 +18716,26 @@
         <v>1.7366738868270188E-2</v>
       </c>
       <c r="R25" s="31">
-        <f t="shared" ref="R25" si="19">AVERAGE(R19:R24)</f>
+        <f>AVERAGE(R19:R24)</f>
         <v>1.4918589698952349E-3</v>
       </c>
       <c r="U25" s="23"/>
       <c r="V25" s="31">
         <f>AVERAGE(V19:V24)</f>
-        <v>1.7032044661182476E-2</v>
+        <v>1.5145308363747126E-2</v>
       </c>
       <c r="W25" s="31">
-        <f t="shared" ref="W25" si="20">AVERAGE(W19:W24)</f>
-        <v>1.5504981397239301E-3</v>
+        <f>AVERAGE(W19:W24)</f>
+        <v>-1.3039849783957329E-2</v>
       </c>
       <c r="Z25" s="23"/>
       <c r="AA25" s="31">
         <f>AVERAGE(AA19:AA24)</f>
-        <v>3.2945825273046105E-2</v>
+        <v>0.11193396393210604</v>
       </c>
       <c r="AB25" s="31">
-        <f t="shared" ref="AB25" si="21">AVERAGE(AB19:AB24)</f>
-        <v>1.2181301112563034E-3</v>
+        <f>AVERAGE(AB19:AB24)</f>
+        <v>9.8925760841892141E-2</v>
       </c>
       <c r="AE25" s="23"/>
       <c r="AF25" s="31">
@@ -19080,7 +18743,7 @@
         <v>1.4354850777914719E-2</v>
       </c>
       <c r="AG25" s="31">
-        <f t="shared" ref="AG25" si="22">AVERAGE(AG19:AG24)</f>
+        <f>AVERAGE(AG19:AG24)</f>
         <v>-8.9526160815616637E-3</v>
       </c>
       <c r="AJ25" s="23"/>
@@ -19089,7 +18752,7 @@
         <v>1.7805926877394334E-2</v>
       </c>
       <c r="AL25" s="31">
-        <f t="shared" ref="AL25" si="23">AVERAGE(AL19:AL24)</f>
+        <f>AVERAGE(AL19:AL24)</f>
         <v>-1.2221073129107295E-3</v>
       </c>
       <c r="AN25" s="37"/>
@@ -19122,7 +18785,7 @@
     </row>
     <row r="27" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="29">
         <f>'10'!P20</f>
@@ -19211,11 +18874,11 @@
       <c r="Z27" s="23"/>
       <c r="AA27" s="29">
         <f>'50'!P20</f>
-        <v>1.5064102564102528E-2</v>
+        <v>-1.2246564158388071E-3</v>
       </c>
       <c r="AB27" s="30">
         <f>'50'!N20</f>
-        <v>-1.1217948717948718E-2</v>
+        <v>-1.9367714428266805E-2</v>
       </c>
       <c r="AC27" s="35">
         <f>'50'!Q20</f>
@@ -19262,7 +18925,7 @@
     </row>
     <row r="28" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="29">
         <f>'10'!P21</f>
@@ -19351,11 +19014,11 @@
       <c r="Z28" s="23"/>
       <c r="AA28" s="29">
         <f>'50'!P21</f>
-        <v>7.8917101075246923E-2</v>
+        <v>-0.14683560658206307</v>
       </c>
       <c r="AB28" s="30">
         <f>'50'!N21</f>
-        <v>1.9205309544122032E-2</v>
+        <v>-0.1512907731273265</v>
       </c>
       <c r="AC28" s="35">
         <f>'50'!Q21</f>
@@ -19402,7 +19065,7 @@
     </row>
     <row r="29" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="29">
         <f>'10'!P22</f>
@@ -19491,11 +19154,11 @@
       <c r="Z29" s="23"/>
       <c r="AA29" s="29">
         <f>'50'!P22</f>
-        <v>0.11536363507274922</v>
+        <v>3.5513846720029461E-2</v>
       </c>
       <c r="AB29" s="30">
         <f>'50'!N22</f>
-        <v>2.3249526899161998E-2</v>
+        <v>-5.6582942313000584E-3</v>
       </c>
       <c r="AC29" s="35">
         <f>'50'!Q22</f>
@@ -19542,7 +19205,7 @@
     </row>
     <row r="30" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="29">
         <f>'10'!P23</f>
@@ -19631,11 +19294,11 @@
       <c r="Z30" s="23"/>
       <c r="AA30" s="29">
         <f>'50'!P23</f>
-        <v>7.8820254714434185E-2</v>
+        <v>-1.5732561516045754E-2</v>
       </c>
       <c r="AB30" s="30">
         <f>'50'!N23</f>
-        <v>-1.2597799969995762E-2</v>
+        <v>-2.3358717042940451E-2</v>
       </c>
       <c r="AC30" s="35">
         <f>'50'!Q23</f>
@@ -19682,7 +19345,7 @@
     </row>
     <row r="31" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" s="29">
         <f>'10'!P24</f>
@@ -19771,11 +19434,11 @@
       <c r="Z31" s="23"/>
       <c r="AA31" s="29">
         <f>'50'!P24</f>
-        <v>5.1512830162706011E-2</v>
+        <v>1.1550590408483961E-2</v>
       </c>
       <c r="AB31" s="30">
         <f>'50'!N24</f>
-        <v>8.4371518303327119E-5</v>
+        <v>8.9747977082804322E-3</v>
       </c>
       <c r="AC31" s="35">
         <f>'50'!Q24</f>
@@ -19822,7 +19485,7 @@
     </row>
     <row r="32" spans="1:40" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="29">
         <f>'10'!P25</f>
@@ -19911,11 +19574,11 @@
       <c r="Z32" s="23"/>
       <c r="AA32" s="29">
         <f>'50'!P25</f>
-        <v>3.8353332277870147E-2</v>
+        <v>6.7556588810106025E-2</v>
       </c>
       <c r="AB32" s="30">
         <f>'50'!N25</f>
-        <v>-5.9326891064204945E-3</v>
+        <v>6.3185132434636568E-2</v>
       </c>
       <c r="AC32" s="35">
         <f>'50'!Q25</f>
@@ -19966,7 +19629,7 @@
         <v>2.17611468999971E-2</v>
       </c>
       <c r="C33" s="31">
-        <f t="shared" ref="C33" si="24">AVERAGE(C27:C32)</f>
+        <f>AVERAGE(C27:C32)</f>
         <v>4.0437436094678216E-4</v>
       </c>
       <c r="D33" s="38"/>
@@ -19977,7 +19640,7 @@
         <v>7.4626467797297528E-3</v>
       </c>
       <c r="H33" s="31">
-        <f t="shared" ref="H33" si="25">AVERAGE(H27:H32)</f>
+        <f>AVERAGE(H27:H32)</f>
         <v>2.4133462625331338E-5</v>
       </c>
       <c r="I33" s="38"/>
@@ -19988,7 +19651,7 @@
         <v>8.8563298361105394E-2</v>
       </c>
       <c r="M33" s="31">
-        <f t="shared" ref="M33" si="26">AVERAGE(M27:M32)</f>
+        <f>AVERAGE(M27:M32)</f>
         <v>1.1955456896861096E-2</v>
       </c>
       <c r="N33" s="38"/>
@@ -19999,7 +19662,7 @@
         <v>5.2104753370456253E-2</v>
       </c>
       <c r="R33" s="31">
-        <f t="shared" ref="R33" si="27">AVERAGE(R27:R32)</f>
+        <f>AVERAGE(R27:R32)</f>
         <v>4.4580109585348471E-3</v>
       </c>
       <c r="S33" s="38"/>
@@ -20010,7 +19673,7 @@
         <v>4.1071682592482429E-2</v>
       </c>
       <c r="W33" s="31">
-        <f t="shared" ref="W33" si="28">AVERAGE(W27:W32)</f>
+        <f>AVERAGE(W27:W32)</f>
         <v>1.2409682598275152E-2</v>
       </c>
       <c r="X33" s="38"/>
@@ -20018,11 +19681,11 @@
       <c r="Z33" s="23"/>
       <c r="AA33" s="31">
         <f>AVERAGE(AA27:AA32)</f>
-        <v>6.3005209311184834E-2</v>
+        <v>-8.1952997625546961E-3</v>
       </c>
       <c r="AB33" s="31">
-        <f t="shared" ref="AB33" si="29">AVERAGE(AB27:AB32)</f>
-        <v>2.1317950278703962E-3</v>
+        <f>AVERAGE(AB27:AB32)</f>
+        <v>-2.1252594781152805E-2</v>
       </c>
       <c r="AC33" s="38"/>
       <c r="AD33" s="31"/>
@@ -20032,7 +19695,7 @@
         <v>3.3226374594270962E-2</v>
       </c>
       <c r="AG33" s="31">
-        <f t="shared" ref="AG33" si="30">AVERAGE(AG27:AG32)</f>
+        <f>AVERAGE(AG27:AG32)</f>
         <v>-1.0176191707838964E-2</v>
       </c>
       <c r="AH33" s="38"/>
@@ -20043,7 +19706,7 @@
         <v>5.3492628560338892E-3</v>
       </c>
       <c r="AL33" s="31">
-        <f t="shared" ref="AL33" si="31">AVERAGE(AL27:AL32)</f>
+        <f>AVERAGE(AL27:AL32)</f>
         <v>-2.5465042595663773E-3</v>
       </c>
       <c r="AM33" s="31"/>
@@ -20133,14 +19796,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AF1:AI1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
